--- a/artfynd/A 32699-2023.xlsx
+++ b/artfynd/A 32699-2023.xlsx
@@ -1025,10 +1025,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111395124</v>
+        <v>111394029</v>
       </c>
       <c r="B5" t="n">
-        <v>96348</v>
+        <v>95532</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1037,42 +1037,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220787</v>
+        <v>221945</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
@@ -1085,10 +1073,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>485562.668198789</v>
+        <v>485569.8992194795</v>
       </c>
       <c r="R5" t="n">
-        <v>7005830.780663809</v>
+        <v>7005829.845207451</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1133,11 +1121,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Minst 30 st. skott/stjälkar och 3 st. nästan helt utblommade blomstänglar av knärot. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
-        </is>
-      </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
@@ -1155,7 +1138,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med fläckvis större inslag av högörter. Mindre mängd död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Mindre mängd död ved. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1173,10 +1156,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111395810</v>
+        <v>111395549</v>
       </c>
       <c r="B6" t="n">
-        <v>98535</v>
+        <v>95532</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1189,21 +1172,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>222498</v>
+        <v>221945</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1221,10 +1204,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>485479.023043606</v>
+        <v>485476.8432645928</v>
       </c>
       <c r="R6" t="n">
-        <v>7005833.41332113</v>
+        <v>7005851.486270355</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1269,11 +1252,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
-        </is>
-      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
@@ -1291,7 +1269,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med fläckvis större inslag av högörter. Mindre mängd död ved. Förekomst av myrstackar. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med fläckvis större inslag av högörter. Mindre mängd död ved. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1309,10 +1287,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111395851</v>
+        <v>111395733</v>
       </c>
       <c r="B7" t="n">
-        <v>95532</v>
+        <v>98535</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1325,26 +1303,30 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>221945</v>
+        <v>222498</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
@@ -1357,10 +1339,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>485479.023043606</v>
+        <v>485483.6402825149</v>
       </c>
       <c r="R7" t="n">
-        <v>7005833.41332113</v>
+        <v>7005854.616773581</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1403,6 +1385,11 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Bitvis gott om blad av blåsippa. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1440,10 +1427,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111394029</v>
+        <v>111393549</v>
       </c>
       <c r="B8" t="n">
-        <v>95532</v>
+        <v>96348</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1452,30 +1439,42 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>221945</v>
+        <v>220787</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
@@ -1534,6 +1533,11 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Minst 118 st. skott/stjälkar och 13 st. nästan helt utblommade blomstänglar av knärot. På fyndplatsen finns även spindelblomster. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1571,10 +1575,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111395549</v>
+        <v>111395124</v>
       </c>
       <c r="B9" t="n">
-        <v>95532</v>
+        <v>96348</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1583,30 +1587,42 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>221945</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
@@ -1619,10 +1635,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>485476.8432645928</v>
+        <v>485562.668198789</v>
       </c>
       <c r="R9" t="n">
-        <v>7005851.486270355</v>
+        <v>7005830.780663809</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1665,6 +1681,11 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Minst 30 st. skott/stjälkar och 3 st. nästan helt utblommade blomstänglar av knärot. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -2274,7 +2295,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111395733</v>
+        <v>111395810</v>
       </c>
       <c r="B14" t="n">
         <v>98535</v>
@@ -2309,11 +2330,7 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
@@ -2326,10 +2343,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>485483.6402825149</v>
+        <v>485479.023043606</v>
       </c>
       <c r="R14" t="n">
-        <v>7005854.616773581</v>
+        <v>7005833.41332113</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2376,7 +2393,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Bitvis gott om blad av blåsippa. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2414,10 +2431,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111393549</v>
+        <v>111395851</v>
       </c>
       <c r="B15" t="n">
-        <v>96348</v>
+        <v>95532</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2426,42 +2443,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>220787</v>
+        <v>221945</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>118</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
@@ -2474,10 +2479,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>485569.8992194795</v>
+        <v>485479.023043606</v>
       </c>
       <c r="R15" t="n">
-        <v>7005829.845207451</v>
+        <v>7005833.41332113</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2522,11 +2527,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>Minst 118 st. skott/stjälkar och 13 st. nästan helt utblommade blomstänglar av knärot. På fyndplatsen finns även spindelblomster. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
-        </is>
-      </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Mindre mängd död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med fläckvis större inslag av högörter. Mindre mängd död ved. Förekomst av myrstackar. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2562,10 +2562,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111662301</v>
+        <v>111662843</v>
       </c>
       <c r="B16" t="n">
-        <v>96348</v>
+        <v>98535</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2574,57 +2574,53 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>överblommad</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr">
         <is>
           <t>Spikbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>485562.0989985527</v>
+        <v>485568.4115727905</v>
       </c>
       <c r="R16" t="n">
-        <v>7005804.591439915</v>
+        <v>7005800.49898608</v>
       </c>
       <c r="S16" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2664,11 +2660,6 @@
       <c r="AB16" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>Minst 17 st. skott/stjälkar och 3 st. överblommade blomstänglar av knärot på två delytor inom ca 5 meters radie från fyndplatsens GPS-position. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2688,7 +2679,7 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig kontinuitetsskog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2706,10 +2697,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111663296</v>
+        <v>111663463</v>
       </c>
       <c r="B17" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2722,25 +2713,33 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
@@ -2749,13 +2748,13 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>485609.6900141542</v>
+        <v>485606.9225669679</v>
       </c>
       <c r="R17" t="n">
-        <v>7005829.216201009</v>
+        <v>7005817.035828291</v>
       </c>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2799,7 +2798,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>Enstaka bålar av garnlav på gran. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>10 fruktkroppar av granticka på en levande gran med uthackat bohål. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2832,9 +2831,19 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t>En levande gran med uthackat bohål.</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Picea abies # En levande gran med uthackat bohål.</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
@@ -2852,10 +2861,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111662489</v>
+        <v>111664006</v>
       </c>
       <c r="B18" t="n">
-        <v>96348</v>
+        <v>96368</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2864,30 +2873,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>220787</v>
+        <v>221952</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2912,13 +2921,13 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>485568.4115727905</v>
+        <v>485633.0508789647</v>
       </c>
       <c r="R18" t="n">
-        <v>7005800.49898608</v>
+        <v>7005896.397059018</v>
       </c>
       <c r="S18" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2962,7 +2971,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>Minst 116 st. skott/stjälkar och 6 st. överblommade blomstänglar av knärot. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Minst 25 st. skott/stjälkar av spindelblomster varav minst ett skott som bär en överblommad blomstängel. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2982,7 +2991,7 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad, luckig och äldre skog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -3000,7 +3009,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111664006</v>
+        <v>111663810</v>
       </c>
       <c r="B19" t="n">
         <v>96368</v>
@@ -3035,7 +3044,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -3060,13 +3069,13 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>485633.0508789647</v>
+        <v>485613.4985160928</v>
       </c>
       <c r="R19" t="n">
-        <v>7005896.397059018</v>
+        <v>7005872.099109154</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -3110,7 +3119,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>Minst 25 st. skott/stjälkar av spindelblomster varav minst ett skott som bär en överblommad blomstängel. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Minst 3 skott/stjälkar av spindelblomster. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -3148,10 +3157,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111663463</v>
+        <v>111663296</v>
       </c>
       <c r="B20" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -3164,33 +3173,25 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
@@ -3199,13 +3200,13 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>485606.9225669679</v>
+        <v>485609.6900141542</v>
       </c>
       <c r="R20" t="n">
-        <v>7005817.035828291</v>
+        <v>7005829.216201009</v>
       </c>
       <c r="S20" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -3249,7 +3250,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>10 fruktkroppar av granticka på en levande gran med uthackat bohål. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Enstaka bålar av garnlav på gran. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3282,19 +3283,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AL20" t="inlineStr">
-        <is>
-          <t>En levande gran med uthackat bohål.</t>
-        </is>
-      </c>
-      <c r="AM20" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies # En levande gran med uthackat bohål.</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -3312,10 +3303,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111663186</v>
+        <v>111662745</v>
       </c>
       <c r="B21" t="n">
-        <v>96368</v>
+        <v>98535</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3328,36 +3319,28 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>221952</v>
+        <v>222498</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>överblommad</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="L21" t="inlineStr"/>
@@ -3372,13 +3355,13 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>485592.9227098347</v>
+        <v>485562.0989985527</v>
       </c>
       <c r="R21" t="n">
-        <v>7005821.162446524</v>
+        <v>7005804.591439915</v>
       </c>
       <c r="S21" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3422,7 +3405,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Minst 16 st. skott/stjälkar av spindelblomster och minst 1 st. överblommad blomstängel. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Relativt gott om blad av blåsippa.</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3442,7 +3425,7 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig äldre skog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3460,10 +3443,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111662745</v>
+        <v>111662301</v>
       </c>
       <c r="B22" t="n">
-        <v>98535</v>
+        <v>96348</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3472,40 +3455,44 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>överblommad</t>
         </is>
       </c>
       <c r="L22" t="inlineStr"/>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Spikbodarna, Jmt</t>
@@ -3562,7 +3549,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Relativt gott om blad av blåsippa.</t>
+          <t>Minst 17 st. skott/stjälkar och 3 st. överblommade blomstänglar av knärot på två delytor inom ca 5 meters radie från fyndplatsens GPS-position. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3582,7 +3569,7 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig äldre skog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig kontinuitetsskog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3600,10 +3587,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111663810</v>
+        <v>111662960</v>
       </c>
       <c r="B23" t="n">
-        <v>96368</v>
+        <v>96348</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3612,30 +3599,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>221952</v>
+        <v>220787</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>880</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -3660,10 +3647,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>485613.4985160928</v>
+        <v>485592.9227098347</v>
       </c>
       <c r="R23" t="n">
-        <v>7005872.099109154</v>
+        <v>7005821.162446524</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3710,7 +3697,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>Minst 3 skott/stjälkar av spindelblomster. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Här finns rikligt med knärot i en mer luckig del av skogen. Minst 880 st. skott/stjälkar och 63 st. överblommade blomstänglar av knärot inom en yta på ca 6 m2. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3748,10 +3735,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111662843</v>
+        <v>111663186</v>
       </c>
       <c r="B24" t="n">
-        <v>98535</v>
+        <v>96368</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3764,28 +3751,36 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>222498</v>
+        <v>221952</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>överblommad</t>
         </is>
       </c>
       <c r="L24" t="inlineStr"/>
@@ -3800,10 +3795,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>485568.4115727905</v>
+        <v>485592.9227098347</v>
       </c>
       <c r="R24" t="n">
-        <v>7005800.49898608</v>
+        <v>7005821.162446524</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3846,6 +3841,11 @@
       <c r="AB24" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Minst 16 st. skott/stjälkar av spindelblomster och minst 1 st. överblommad blomstängel. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3883,7 +3883,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111662960</v>
+        <v>111662489</v>
       </c>
       <c r="B25" t="n">
         <v>96348</v>
@@ -3918,7 +3918,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>116</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3943,10 +3943,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>485592.9227098347</v>
+        <v>485568.4115727905</v>
       </c>
       <c r="R25" t="n">
-        <v>7005821.162446524</v>
+        <v>7005800.49898608</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>Här finns rikligt med knärot i en mer luckig del av skogen. Minst 880 st. skott/stjälkar och 63 st. överblommade blomstänglar av knärot inom en yta på ca 6 m2. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Minst 116 st. skott/stjälkar och 6 st. överblommade blomstänglar av knärot. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -4013,7 +4013,7 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad, luckig och äldre skog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>

--- a/artfynd/A 32699-2023.xlsx
+++ b/artfynd/A 32699-2023.xlsx
@@ -1025,10 +1025,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111394029</v>
+        <v>111395810</v>
       </c>
       <c r="B5" t="n">
-        <v>95532</v>
+        <v>98535</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1041,21 +1041,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>221945</v>
+        <v>222498</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1073,10 +1073,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>485569.8992194795</v>
+        <v>485479.023043606</v>
       </c>
       <c r="R5" t="n">
-        <v>7005829.845207451</v>
+        <v>7005833.41332113</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1121,6 +1121,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+        </is>
+      </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
@@ -1138,7 +1143,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Mindre mängd död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med fläckvis större inslag av högörter. Mindre mängd död ved. Förekomst av myrstackar. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1287,10 +1292,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111395733</v>
+        <v>111393849</v>
       </c>
       <c r="B7" t="n">
-        <v>98535</v>
+        <v>96368</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1303,28 +1308,36 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>222498</v>
+        <v>221952</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>överblommad</t>
         </is>
       </c>
       <c r="L7" t="inlineStr"/>
@@ -1339,10 +1352,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>485483.6402825149</v>
+        <v>485569.8992194795</v>
       </c>
       <c r="R7" t="n">
-        <v>7005854.616773581</v>
+        <v>7005829.845207451</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1389,7 +1402,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Bitvis gott om blad av blåsippa. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Minst 9 st. skott/stjälkar av spindelblomster. På fyndplatsen växer även knärot. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1409,7 +1422,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med fläckvis större inslag av högörter. Mindre mängd död ved. Förekomst av myrstackar. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Mindre mängd död ved. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1427,7 +1440,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111393549</v>
+        <v>111395124</v>
       </c>
       <c r="B8" t="n">
         <v>96348</v>
@@ -1462,7 +1475,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1487,10 +1500,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>485569.8992194795</v>
+        <v>485562.668198789</v>
       </c>
       <c r="R8" t="n">
-        <v>7005829.845207451</v>
+        <v>7005830.780663809</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1537,7 +1550,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Minst 118 st. skott/stjälkar och 13 st. nästan helt utblommade blomstänglar av knärot. På fyndplatsen finns även spindelblomster. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Minst 30 st. skott/stjälkar och 3 st. nästan helt utblommade blomstänglar av knärot. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1557,7 +1570,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Mindre mängd död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med fläckvis större inslag av högörter. Mindre mängd död ved. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1575,10 +1588,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111395124</v>
+        <v>111395634</v>
       </c>
       <c r="B9" t="n">
-        <v>96348</v>
+        <v>98535</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1587,40 +1600,32 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>blomning</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -1635,10 +1640,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>485562.668198789</v>
+        <v>485514.7906205741</v>
       </c>
       <c r="R9" t="n">
-        <v>7005830.780663809</v>
+        <v>7005843.187552919</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1685,7 +1690,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Minst 30 st. skott/stjälkar och 3 st. nästan helt utblommade blomstänglar av knärot. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Bitvis gott om blad av blåsippa. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1705,7 +1710,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med fläckvis större inslag av högörter. Mindre mängd död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med fläckvis större inslag av högörter. Mindre mängd död ved. Förekomst av myrstackar. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1723,7 +1728,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111393849</v>
+        <v>111395479</v>
       </c>
       <c r="B10" t="n">
         <v>96368</v>
@@ -1758,7 +1763,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1783,10 +1788,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>485569.8992194795</v>
+        <v>485476.8432645928</v>
       </c>
       <c r="R10" t="n">
-        <v>7005829.845207451</v>
+        <v>7005851.486270355</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1833,7 +1838,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Minst 9 st. skott/stjälkar av spindelblomster. På fyndplatsen växer även knärot. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Minst 4 st. skott/stjälkar av spindelblomster. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1853,7 +1858,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Mindre mängd död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med fläckvis större inslag av högörter. Mindre mängd död ved. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1871,10 +1876,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111395319</v>
+        <v>111393549</v>
       </c>
       <c r="B11" t="n">
-        <v>98535</v>
+        <v>96348</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1883,30 +1888,42 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
@@ -1919,10 +1936,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>485562.668198789</v>
+        <v>485569.8992194795</v>
       </c>
       <c r="R11" t="n">
-        <v>7005830.780663809</v>
+        <v>7005829.845207451</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1969,7 +1986,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Bitvis gott om blad av blåsippa. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Minst 118 st. skott/stjälkar och 13 st. nästan helt utblommade blomstänglar av knärot. På fyndplatsen finns även spindelblomster. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1989,7 +2006,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med fläckvis större inslag av högörter. Mindre mängd död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Mindre mängd död ved. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -2007,7 +2024,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111395634</v>
+        <v>111395319</v>
       </c>
       <c r="B12" t="n">
         <v>98535</v>
@@ -2042,11 +2059,7 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
@@ -2059,10 +2072,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>485514.7906205741</v>
+        <v>485562.668198789</v>
       </c>
       <c r="R12" t="n">
-        <v>7005843.187552919</v>
+        <v>7005830.780663809</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2129,7 +2142,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med fläckvis större inslag av högörter. Mindre mängd död ved. Förekomst av myrstackar. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med fläckvis större inslag av högörter. Mindre mängd död ved. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2147,10 +2160,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111395479</v>
+        <v>111394029</v>
       </c>
       <c r="B13" t="n">
-        <v>96368</v>
+        <v>95532</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2163,38 +2176,26 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>221952</v>
+        <v>221945</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
@@ -2207,10 +2208,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>485476.8432645928</v>
+        <v>485569.8992194795</v>
       </c>
       <c r="R13" t="n">
-        <v>7005851.486270355</v>
+        <v>7005829.845207451</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2255,11 +2256,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Minst 4 st. skott/stjälkar av spindelblomster. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
-        </is>
-      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
@@ -2277,7 +2273,7 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med fläckvis större inslag av högörter. Mindre mängd död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Mindre mängd död ved. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2295,10 +2291,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111395810</v>
+        <v>111395851</v>
       </c>
       <c r="B14" t="n">
-        <v>98535</v>
+        <v>95532</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2311,21 +2307,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>222498</v>
+        <v>221945</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2391,11 +2387,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
-        </is>
-      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
@@ -2431,10 +2422,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111395851</v>
+        <v>111395733</v>
       </c>
       <c r="B15" t="n">
-        <v>95532</v>
+        <v>98535</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2447,26 +2438,30 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>221945</v>
+        <v>222498</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="L15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
@@ -2479,10 +2474,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>485479.023043606</v>
+        <v>485483.6402825149</v>
       </c>
       <c r="R15" t="n">
-        <v>7005833.41332113</v>
+        <v>7005854.616773581</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2525,6 +2520,11 @@
       <c r="AB15" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Bitvis gott om blad av blåsippa. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2562,10 +2562,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111662843</v>
+        <v>111663810</v>
       </c>
       <c r="B16" t="n">
-        <v>98535</v>
+        <v>96368</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2578,28 +2578,36 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>222498</v>
+        <v>221952</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>överblommad</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
@@ -2614,10 +2622,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>485568.4115727905</v>
+        <v>485613.4985160928</v>
       </c>
       <c r="R16" t="n">
-        <v>7005800.49898608</v>
+        <v>7005872.099109154</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2660,6 +2668,11 @@
       <c r="AB16" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Minst 3 skott/stjälkar av spindelblomster. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2697,10 +2710,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111663463</v>
+        <v>111662960</v>
       </c>
       <c r="B17" t="n">
-        <v>89423</v>
+        <v>96348</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2709,52 +2722,61 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5432</v>
+        <v>220787</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>880</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Spikbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>485606.9225669679</v>
+        <v>485592.9227098347</v>
       </c>
       <c r="R17" t="n">
-        <v>7005817.035828291</v>
+        <v>7005821.162446524</v>
       </c>
       <c r="S17" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2798,7 +2820,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>10 fruktkroppar av granticka på en levande gran med uthackat bohål. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Här finns rikligt med knärot i en mer luckig del av skogen. Minst 880 st. skott/stjälkar och 63 st. överblommade blomstänglar av knärot inom en yta på ca 6 m2. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2819,31 +2841,6 @@
       <c r="AI17" t="inlineStr">
         <is>
           <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
-        </is>
-      </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK17" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL17" t="inlineStr">
-        <is>
-          <t>En levande gran med uthackat bohål.</t>
-        </is>
-      </c>
-      <c r="AM17" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies # En levande gran med uthackat bohål.</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
@@ -2861,10 +2858,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111664006</v>
+        <v>111663463</v>
       </c>
       <c r="B18" t="n">
-        <v>96368</v>
+        <v>89423</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2873,58 +2870,49 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>221952</v>
+        <v>5432</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Spikbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>485633.0508789647</v>
+        <v>485606.9225669679</v>
       </c>
       <c r="R18" t="n">
-        <v>7005896.397059018</v>
+        <v>7005817.035828291</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2971,7 +2959,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>Minst 25 st. skott/stjälkar av spindelblomster varav minst ett skott som bär en överblommad blomstängel. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>10 fruktkroppar av granticka på en levande gran med uthackat bohål. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2992,6 +2980,31 @@
       <c r="AI18" t="inlineStr">
         <is>
           <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>En levande gran med uthackat bohål.</t>
+        </is>
+      </c>
+      <c r="AM18" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies # En levande gran med uthackat bohål.</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -3009,10 +3022,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111663810</v>
+        <v>111662301</v>
       </c>
       <c r="B19" t="n">
-        <v>96368</v>
+        <v>96348</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -3021,30 +3034,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>221952</v>
+        <v>220787</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>17</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -3058,24 +3071,20 @@
         </is>
       </c>
       <c r="L19" t="inlineStr"/>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Spikbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>485613.4985160928</v>
+        <v>485562.0989985527</v>
       </c>
       <c r="R19" t="n">
-        <v>7005872.099109154</v>
+        <v>7005804.591439915</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -3119,7 +3128,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>Minst 3 skott/stjälkar av spindelblomster. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Minst 17 st. skott/stjälkar och 3 st. överblommade blomstänglar av knärot på två delytor inom ca 5 meters radie från fyndplatsens GPS-position. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -3139,7 +3148,7 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig kontinuitetsskog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -3157,10 +3166,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111663296</v>
+        <v>111664006</v>
       </c>
       <c r="B20" t="n">
-        <v>77515</v>
+        <v>96368</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -3169,44 +3178,61 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Spikbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>485609.6900141542</v>
+        <v>485633.0508789647</v>
       </c>
       <c r="R20" t="n">
-        <v>7005829.216201009</v>
+        <v>7005896.397059018</v>
       </c>
       <c r="S20" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -3250,7 +3276,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>Enstaka bålar av garnlav på gran. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Minst 25 st. skott/stjälkar av spindelblomster varav minst ett skott som bär en överblommad blomstängel. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3271,21 +3297,6 @@
       <c r="AI20" t="inlineStr">
         <is>
           <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
-        </is>
-      </c>
-      <c r="AJ20" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK20" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO20" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -3303,10 +3314,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111662745</v>
+        <v>111663296</v>
       </c>
       <c r="B21" t="n">
-        <v>98535</v>
+        <v>77515</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3315,53 +3326,44 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>222498</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Spikbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>485562.0989985527</v>
+        <v>485609.6900141542</v>
       </c>
       <c r="R21" t="n">
-        <v>7005804.591439915</v>
+        <v>7005829.216201009</v>
       </c>
       <c r="S21" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3405,7 +3407,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Relativt gott om blad av blåsippa.</t>
+          <t>Enstaka bålar av garnlav på gran. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3425,7 +3427,22 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig äldre skog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+        </is>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3443,10 +3460,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111662301</v>
+        <v>111662843</v>
       </c>
       <c r="B22" t="n">
-        <v>96348</v>
+        <v>98535</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3455,57 +3472,53 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>överblommad</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="L22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr">
         <is>
           <t>Spikbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>485562.0989985527</v>
+        <v>485568.4115727905</v>
       </c>
       <c r="R22" t="n">
-        <v>7005804.591439915</v>
+        <v>7005800.49898608</v>
       </c>
       <c r="S22" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3545,11 +3558,6 @@
       <c r="AB22" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Minst 17 st. skott/stjälkar och 3 st. överblommade blomstänglar av knärot på två delytor inom ca 5 meters radie från fyndplatsens GPS-position. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3569,7 +3577,7 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig kontinuitetsskog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3587,10 +3595,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111662960</v>
+        <v>111663186</v>
       </c>
       <c r="B23" t="n">
-        <v>96348</v>
+        <v>96368</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3599,30 +3607,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>220787</v>
+        <v>221952</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>16</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -3697,7 +3705,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>Här finns rikligt med knärot i en mer luckig del av skogen. Minst 880 st. skott/stjälkar och 63 st. överblommade blomstänglar av knärot inom en yta på ca 6 m2. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Minst 16 st. skott/stjälkar av spindelblomster och minst 1 st. överblommad blomstängel. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3735,10 +3743,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111663186</v>
+        <v>111662489</v>
       </c>
       <c r="B24" t="n">
-        <v>96368</v>
+        <v>96348</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3747,30 +3755,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>221952</v>
+        <v>220787</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>116</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -3795,10 +3803,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>485592.9227098347</v>
+        <v>485568.4115727905</v>
       </c>
       <c r="R24" t="n">
-        <v>7005821.162446524</v>
+        <v>7005800.49898608</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3845,7 +3853,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>Minst 16 st. skott/stjälkar av spindelblomster och minst 1 st. överblommad blomstängel. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Minst 116 st. skott/stjälkar och 6 st. överblommade blomstänglar av knärot. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3865,7 +3873,7 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad, luckig och äldre skog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3883,10 +3891,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111662489</v>
+        <v>111662745</v>
       </c>
       <c r="B25" t="n">
-        <v>96348</v>
+        <v>98535</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3895,40 +3903,32 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>överblommad</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="L25" t="inlineStr"/>
@@ -3943,13 +3943,13 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>485568.4115727905</v>
+        <v>485562.0989985527</v>
       </c>
       <c r="R25" t="n">
-        <v>7005800.49898608</v>
+        <v>7005804.591439915</v>
       </c>
       <c r="S25" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>Minst 116 st. skott/stjälkar och 6 st. överblommade blomstänglar av knärot. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Relativt gott om blad av blåsippa.</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -4013,7 +4013,7 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad, luckig och äldre skog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig äldre skog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>

--- a/artfynd/A 32699-2023.xlsx
+++ b/artfynd/A 32699-2023.xlsx
@@ -1025,10 +1025,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111395810</v>
+        <v>111395124</v>
       </c>
       <c r="B5" t="n">
-        <v>98535</v>
+        <v>96348</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1037,30 +1037,42 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
@@ -1073,10 +1085,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>485479.023043606</v>
+        <v>485562.668198789</v>
       </c>
       <c r="R5" t="n">
-        <v>7005833.41332113</v>
+        <v>7005830.780663809</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1123,7 +1135,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Minst 30 st. skott/stjälkar och 3 st. nästan helt utblommade blomstänglar av knärot. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1143,7 +1155,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med fläckvis större inslag av högörter. Mindre mängd död ved. Förekomst av myrstackar. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med fläckvis större inslag av högörter. Mindre mängd död ved. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1161,10 +1173,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111395549</v>
+        <v>111393549</v>
       </c>
       <c r="B6" t="n">
-        <v>95532</v>
+        <v>96348</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1173,30 +1185,42 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>221945</v>
+        <v>220787</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
@@ -1209,10 +1233,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>485476.8432645928</v>
+        <v>485569.8992194795</v>
       </c>
       <c r="R6" t="n">
-        <v>7005851.486270355</v>
+        <v>7005829.845207451</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1257,6 +1281,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Minst 118 st. skott/stjälkar och 13 st. nästan helt utblommade blomstänglar av knärot. På fyndplatsen finns även spindelblomster. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+        </is>
+      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
@@ -1274,7 +1303,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med fläckvis större inslag av högörter. Mindre mängd död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Mindre mängd död ved. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1440,10 +1469,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111395124</v>
+        <v>111395549</v>
       </c>
       <c r="B8" t="n">
-        <v>96348</v>
+        <v>95532</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1452,42 +1481,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>220787</v>
+        <v>221945</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
@@ -1500,10 +1517,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>485562.668198789</v>
+        <v>485476.8432645928</v>
       </c>
       <c r="R8" t="n">
-        <v>7005830.780663809</v>
+        <v>7005851.486270355</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1546,11 +1563,6 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Minst 30 st. skott/stjälkar och 3 st. nästan helt utblommade blomstänglar av knärot. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1588,10 +1600,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111395634</v>
+        <v>111394029</v>
       </c>
       <c r="B9" t="n">
-        <v>98535</v>
+        <v>95532</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1604,30 +1616,26 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>222498</v>
+        <v>221945</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
@@ -1640,10 +1648,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>485514.7906205741</v>
+        <v>485569.8992194795</v>
       </c>
       <c r="R9" t="n">
-        <v>7005843.187552919</v>
+        <v>7005829.845207451</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1688,11 +1696,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Bitvis gott om blad av blåsippa. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
-        </is>
-      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
@@ -1710,7 +1713,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med fläckvis större inslag av högörter. Mindre mängd död ved. Förekomst av myrstackar. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Mindre mängd död ved. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1728,10 +1731,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111395479</v>
+        <v>111395634</v>
       </c>
       <c r="B10" t="n">
-        <v>96368</v>
+        <v>98535</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1744,36 +1747,28 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>221952</v>
+        <v>222498</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>överblommad</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1788,10 +1783,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>485476.8432645928</v>
+        <v>485514.7906205741</v>
       </c>
       <c r="R10" t="n">
-        <v>7005851.486270355</v>
+        <v>7005843.187552919</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1838,7 +1833,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Minst 4 st. skott/stjälkar av spindelblomster. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Bitvis gott om blad av blåsippa. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1858,7 +1853,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med fläckvis större inslag av högörter. Mindre mängd död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med fläckvis större inslag av högörter. Mindre mängd död ved. Förekomst av myrstackar. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1876,10 +1871,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111393549</v>
+        <v>111395319</v>
       </c>
       <c r="B11" t="n">
-        <v>96348</v>
+        <v>98535</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1888,42 +1883,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>118</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
@@ -1936,10 +1919,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>485569.8992194795</v>
+        <v>485562.668198789</v>
       </c>
       <c r="R11" t="n">
-        <v>7005829.845207451</v>
+        <v>7005830.780663809</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1986,7 +1969,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Minst 118 st. skott/stjälkar och 13 st. nästan helt utblommade blomstänglar av knärot. På fyndplatsen finns även spindelblomster. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Bitvis gott om blad av blåsippa. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -2006,7 +1989,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Mindre mängd död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med fläckvis större inslag av högörter. Mindre mängd död ved. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -2024,10 +2007,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111395319</v>
+        <v>111395851</v>
       </c>
       <c r="B12" t="n">
-        <v>98535</v>
+        <v>95532</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2040,21 +2023,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>222498</v>
+        <v>221945</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -2072,10 +2055,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>485562.668198789</v>
+        <v>485479.023043606</v>
       </c>
       <c r="R12" t="n">
-        <v>7005830.780663809</v>
+        <v>7005833.41332113</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2120,11 +2103,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Bitvis gott om blad av blåsippa. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
-        </is>
-      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
@@ -2142,7 +2120,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med fläckvis större inslag av högörter. Mindre mängd död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med fläckvis större inslag av högörter. Mindre mängd död ved. Förekomst av myrstackar. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2160,10 +2138,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111394029</v>
+        <v>111395810</v>
       </c>
       <c r="B13" t="n">
-        <v>95532</v>
+        <v>98535</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2176,21 +2154,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>221945</v>
+        <v>222498</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2208,10 +2186,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>485569.8992194795</v>
+        <v>485479.023043606</v>
       </c>
       <c r="R13" t="n">
-        <v>7005829.845207451</v>
+        <v>7005833.41332113</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2256,6 +2234,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+        </is>
+      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
@@ -2273,7 +2256,7 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Mindre mängd död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med fläckvis större inslag av högörter. Mindre mängd död ved. Förekomst av myrstackar. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2291,10 +2274,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111395851</v>
+        <v>111395479</v>
       </c>
       <c r="B14" t="n">
-        <v>95532</v>
+        <v>96368</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2307,26 +2290,38 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>221945</v>
+        <v>221952</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
       <c r="L14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
@@ -2339,10 +2334,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>485479.023043606</v>
+        <v>485476.8432645928</v>
       </c>
       <c r="R14" t="n">
-        <v>7005833.41332113</v>
+        <v>7005851.486270355</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2387,6 +2382,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Minst 4 st. skott/stjälkar av spindelblomster. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+        </is>
+      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
@@ -2404,7 +2404,7 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med fläckvis större inslag av högörter. Mindre mängd död ved. Förekomst av myrstackar. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med fläckvis större inslag av högörter. Mindre mängd död ved. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2562,10 +2562,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111663810</v>
+        <v>111662745</v>
       </c>
       <c r="B16" t="n">
-        <v>96368</v>
+        <v>98535</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2578,36 +2578,28 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>221952</v>
+        <v>222498</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>överblommad</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
@@ -2622,13 +2614,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>485613.4985160928</v>
+        <v>485562.0989985527</v>
       </c>
       <c r="R16" t="n">
-        <v>7005872.099109154</v>
+        <v>7005804.591439915</v>
       </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2672,7 +2664,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Minst 3 skott/stjälkar av spindelblomster. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Relativt gott om blad av blåsippa.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2692,7 +2684,7 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig äldre skog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2710,10 +2702,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111662960</v>
+        <v>111662843</v>
       </c>
       <c r="B17" t="n">
-        <v>96348</v>
+        <v>98535</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2722,40 +2714,32 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>880</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>överblommad</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="L17" t="inlineStr"/>
@@ -2770,10 +2754,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>485592.9227098347</v>
+        <v>485568.4115727905</v>
       </c>
       <c r="R17" t="n">
-        <v>7005821.162446524</v>
+        <v>7005800.49898608</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2816,11 +2800,6 @@
       <c r="AB17" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Här finns rikligt med knärot i en mer luckig del av skogen. Minst 880 st. skott/stjälkar och 63 st. överblommade blomstänglar av knärot inom en yta på ca 6 m2. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2858,10 +2837,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111663463</v>
+        <v>111663186</v>
       </c>
       <c r="B18" t="n">
-        <v>89423</v>
+        <v>96368</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2870,52 +2849,61 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5432</v>
+        <v>221952</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>16</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr">
         <is>
           <t>Spikbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>485606.9225669679</v>
+        <v>485592.9227098347</v>
       </c>
       <c r="R18" t="n">
-        <v>7005817.035828291</v>
+        <v>7005821.162446524</v>
       </c>
       <c r="S18" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2959,7 +2947,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>10 fruktkroppar av granticka på en levande gran med uthackat bohål. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Minst 16 st. skott/stjälkar av spindelblomster och minst 1 st. överblommad blomstängel. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2980,31 +2968,6 @@
       <c r="AI18" t="inlineStr">
         <is>
           <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
-        </is>
-      </c>
-      <c r="AJ18" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK18" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL18" t="inlineStr">
-        <is>
-          <t>En levande gran med uthackat bohål.</t>
-        </is>
-      </c>
-      <c r="AM18" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO18" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies # En levande gran med uthackat bohål.</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -3166,7 +3129,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111664006</v>
+        <v>111663810</v>
       </c>
       <c r="B20" t="n">
         <v>96368</v>
@@ -3201,7 +3164,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -3226,13 +3189,13 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>485633.0508789647</v>
+        <v>485613.4985160928</v>
       </c>
       <c r="R20" t="n">
-        <v>7005896.397059018</v>
+        <v>7005872.099109154</v>
       </c>
       <c r="S20" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -3276,7 +3239,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>Minst 25 st. skott/stjälkar av spindelblomster varav minst ett skott som bär en överblommad blomstängel. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Minst 3 skott/stjälkar av spindelblomster. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3314,10 +3277,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111663296</v>
+        <v>111664006</v>
       </c>
       <c r="B21" t="n">
-        <v>77515</v>
+        <v>96368</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3326,44 +3289,61 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>Spikbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>485609.6900141542</v>
+        <v>485633.0508789647</v>
       </c>
       <c r="R21" t="n">
-        <v>7005829.216201009</v>
+        <v>7005896.397059018</v>
       </c>
       <c r="S21" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3407,7 +3387,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Enstaka bålar av garnlav på gran. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Minst 25 st. skott/stjälkar av spindelblomster varav minst ett skott som bär en överblommad blomstängel. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3428,21 +3408,6 @@
       <c r="AI21" t="inlineStr">
         <is>
           <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
-        </is>
-      </c>
-      <c r="AJ21" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK21" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO21" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3460,10 +3425,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111662843</v>
+        <v>111662489</v>
       </c>
       <c r="B22" t="n">
-        <v>98535</v>
+        <v>96348</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3472,32 +3437,40 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>överblommad</t>
         </is>
       </c>
       <c r="L22" t="inlineStr"/>
@@ -3560,6 +3533,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Minst 116 st. skott/stjälkar och 6 st. överblommade blomstänglar av knärot. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+        </is>
+      </c>
       <c r="AD22" t="b">
         <v>0</v>
       </c>
@@ -3577,7 +3555,7 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad, luckig och äldre skog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3595,10 +3573,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111663186</v>
+        <v>111662960</v>
       </c>
       <c r="B23" t="n">
-        <v>96368</v>
+        <v>96348</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3607,30 +3585,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>221952</v>
+        <v>220787</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>880</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -3705,7 +3683,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>Minst 16 st. skott/stjälkar av spindelblomster och minst 1 st. överblommad blomstängel. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Här finns rikligt med knärot i en mer luckig del av skogen. Minst 880 st. skott/stjälkar och 63 st. överblommade blomstänglar av knärot inom en yta på ca 6 m2. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3743,10 +3721,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111662489</v>
+        <v>111663463</v>
       </c>
       <c r="B24" t="n">
-        <v>96348</v>
+        <v>89423</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3755,61 +3733,52 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>220787</v>
+        <v>5432</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr"/>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Spikbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>485568.4115727905</v>
+        <v>485606.9225669679</v>
       </c>
       <c r="R24" t="n">
-        <v>7005800.49898608</v>
+        <v>7005817.035828291</v>
       </c>
       <c r="S24" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3853,7 +3822,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>Minst 116 st. skott/stjälkar och 6 st. överblommade blomstänglar av knärot. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>10 fruktkroppar av granticka på en levande gran med uthackat bohål. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3873,7 +3842,32 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad, luckig och äldre skog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+        </is>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL24" t="inlineStr">
+        <is>
+          <t>En levande gran med uthackat bohål.</t>
+        </is>
+      </c>
+      <c r="AM24" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies # En levande gran med uthackat bohål.</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3891,10 +3885,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111662745</v>
+        <v>111663296</v>
       </c>
       <c r="B25" t="n">
-        <v>98535</v>
+        <v>77515</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3903,53 +3897,44 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>222498</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr"/>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Spikbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>485562.0989985527</v>
+        <v>485609.6900141542</v>
       </c>
       <c r="R25" t="n">
-        <v>7005804.591439915</v>
+        <v>7005829.216201009</v>
       </c>
       <c r="S25" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3993,7 +3978,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>Relativt gott om blad av blåsippa.</t>
+          <t>Enstaka bålar av garnlav på gran. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -4013,7 +3998,22 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig äldre skog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+        </is>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>

--- a/artfynd/A 32699-2023.xlsx
+++ b/artfynd/A 32699-2023.xlsx
@@ -1025,7 +1025,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111395124</v>
+        <v>111393549</v>
       </c>
       <c r="B5" t="n">
         <v>96348</v>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>118</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1085,10 +1085,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>485562.668198789</v>
+        <v>485569.8992194795</v>
       </c>
       <c r="R5" t="n">
-        <v>7005830.780663809</v>
+        <v>7005829.845207451</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Minst 30 st. skott/stjälkar och 3 st. nästan helt utblommade blomstänglar av knärot. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Minst 118 st. skott/stjälkar och 13 st. nästan helt utblommade blomstänglar av knärot. På fyndplatsen finns även spindelblomster. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med fläckvis större inslag av högörter. Mindre mängd död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Mindre mängd död ved. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1173,10 +1173,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111393549</v>
+        <v>111395549</v>
       </c>
       <c r="B6" t="n">
-        <v>96348</v>
+        <v>95532</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1185,42 +1185,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>220787</v>
+        <v>221945</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>118</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
@@ -1233,10 +1221,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>485569.8992194795</v>
+        <v>485476.8432645928</v>
       </c>
       <c r="R6" t="n">
-        <v>7005829.845207451</v>
+        <v>7005851.486270355</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1281,11 +1269,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Minst 118 st. skott/stjälkar och 13 st. nästan helt utblommade blomstänglar av knärot. På fyndplatsen finns även spindelblomster. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
-        </is>
-      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
@@ -1303,7 +1286,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Mindre mängd död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med fläckvis större inslag av högörter. Mindre mängd död ved. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1321,10 +1304,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111393849</v>
+        <v>111395733</v>
       </c>
       <c r="B7" t="n">
-        <v>96368</v>
+        <v>98535</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1337,36 +1320,28 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>221952</v>
+        <v>222498</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>överblommad</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="L7" t="inlineStr"/>
@@ -1381,10 +1356,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>485569.8992194795</v>
+        <v>485483.6402825149</v>
       </c>
       <c r="R7" t="n">
-        <v>7005829.845207451</v>
+        <v>7005854.616773581</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1431,7 +1406,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Minst 9 st. skott/stjälkar av spindelblomster. På fyndplatsen växer även knärot. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Bitvis gott om blad av blåsippa. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1451,7 +1426,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Mindre mängd död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med fläckvis större inslag av högörter. Mindre mängd död ved. Förekomst av myrstackar. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1469,10 +1444,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111395549</v>
+        <v>111395810</v>
       </c>
       <c r="B8" t="n">
-        <v>95532</v>
+        <v>98535</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1485,21 +1460,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>221945</v>
+        <v>222498</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1517,10 +1492,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>485476.8432645928</v>
+        <v>485479.023043606</v>
       </c>
       <c r="R8" t="n">
-        <v>7005851.486270355</v>
+        <v>7005833.41332113</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1565,6 +1540,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+        </is>
+      </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
@@ -1582,7 +1562,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med fläckvis större inslag av högörter. Mindre mängd död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med fläckvis större inslag av högörter. Mindre mängd död ved. Förekomst av myrstackar. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1600,7 +1580,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111394029</v>
+        <v>111395851</v>
       </c>
       <c r="B9" t="n">
         <v>95532</v>
@@ -1648,10 +1628,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>485569.8992194795</v>
+        <v>485479.023043606</v>
       </c>
       <c r="R9" t="n">
-        <v>7005829.845207451</v>
+        <v>7005833.41332113</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1713,7 +1693,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Mindre mängd död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med fläckvis större inslag av högörter. Mindre mängd död ved. Förekomst av myrstackar. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1731,10 +1711,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111395634</v>
+        <v>111395479</v>
       </c>
       <c r="B10" t="n">
-        <v>98535</v>
+        <v>96368</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1747,28 +1727,36 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>222498</v>
+        <v>221952</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>överblommad</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1783,10 +1771,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>485514.7906205741</v>
+        <v>485476.8432645928</v>
       </c>
       <c r="R10" t="n">
-        <v>7005843.187552919</v>
+        <v>7005851.486270355</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1833,7 +1821,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Bitvis gott om blad av blåsippa. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Minst 4 st. skott/stjälkar av spindelblomster. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1853,7 +1841,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med fläckvis större inslag av högörter. Mindre mängd död ved. Förekomst av myrstackar. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med fläckvis större inslag av högörter. Mindre mängd död ved. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1871,10 +1859,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111395319</v>
+        <v>111394029</v>
       </c>
       <c r="B11" t="n">
-        <v>98535</v>
+        <v>95532</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1887,21 +1875,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>222498</v>
+        <v>221945</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1919,10 +1907,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>485562.668198789</v>
+        <v>485569.8992194795</v>
       </c>
       <c r="R11" t="n">
-        <v>7005830.780663809</v>
+        <v>7005829.845207451</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1967,11 +1955,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Bitvis gott om blad av blåsippa. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
-        </is>
-      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
@@ -1989,7 +1972,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med fläckvis större inslag av högörter. Mindre mängd död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Mindre mängd död ved. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -2007,10 +1990,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111395851</v>
+        <v>111395124</v>
       </c>
       <c r="B12" t="n">
-        <v>95532</v>
+        <v>96348</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2019,30 +2002,42 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>221945</v>
+        <v>220787</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
@@ -2055,10 +2050,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>485479.023043606</v>
+        <v>485562.668198789</v>
       </c>
       <c r="R12" t="n">
-        <v>7005833.41332113</v>
+        <v>7005830.780663809</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2103,6 +2098,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Minst 30 st. skott/stjälkar och 3 st. nästan helt utblommade blomstänglar av knärot. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+        </is>
+      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med fläckvis större inslag av högörter. Mindre mängd död ved. Förekomst av myrstackar. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med fläckvis större inslag av högörter. Mindre mängd död ved. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2138,10 +2138,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111395810</v>
+        <v>111393849</v>
       </c>
       <c r="B13" t="n">
-        <v>98535</v>
+        <v>96368</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2154,26 +2154,38 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>222498</v>
+        <v>221952</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
       <c r="L13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
@@ -2186,10 +2198,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>485479.023043606</v>
+        <v>485569.8992194795</v>
       </c>
       <c r="R13" t="n">
-        <v>7005833.41332113</v>
+        <v>7005829.845207451</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2236,7 +2248,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Minst 9 st. skott/stjälkar av spindelblomster. På fyndplatsen växer även knärot. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2256,7 +2268,7 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med fläckvis större inslag av högörter. Mindre mängd död ved. Förekomst av myrstackar. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Mindre mängd död ved. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2274,10 +2286,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111395479</v>
+        <v>111395634</v>
       </c>
       <c r="B14" t="n">
-        <v>96368</v>
+        <v>98535</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2290,36 +2302,28 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>221952</v>
+        <v>222498</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>överblommad</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -2334,10 +2338,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>485476.8432645928</v>
+        <v>485514.7906205741</v>
       </c>
       <c r="R14" t="n">
-        <v>7005851.486270355</v>
+        <v>7005843.187552919</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2384,7 +2388,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Minst 4 st. skott/stjälkar av spindelblomster. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Bitvis gott om blad av blåsippa. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2404,7 +2408,7 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med fläckvis större inslag av högörter. Mindre mängd död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med fläckvis större inslag av högörter. Mindre mängd död ved. Förekomst av myrstackar. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2422,7 +2426,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111395733</v>
+        <v>111395319</v>
       </c>
       <c r="B15" t="n">
         <v>98535</v>
@@ -2457,11 +2461,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
@@ -2474,10 +2474,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>485483.6402825149</v>
+        <v>485562.668198789</v>
       </c>
       <c r="R15" t="n">
-        <v>7005854.616773581</v>
+        <v>7005830.780663809</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med fläckvis större inslag av högörter. Mindre mängd död ved. Förekomst av myrstackar. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig skog med fältskikt dominerat av blåbärsris och med fläckvis större inslag av högörter. Mindre mängd död ved. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2562,10 +2562,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111662745</v>
+        <v>111663463</v>
       </c>
       <c r="B16" t="n">
-        <v>98535</v>
+        <v>89423</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2574,50 +2574,49 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>222498</v>
+        <v>5432</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Spikbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>485562.0989985527</v>
+        <v>485606.9225669679</v>
       </c>
       <c r="R16" t="n">
-        <v>7005804.591439915</v>
+        <v>7005817.035828291</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2664,7 +2663,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Relativt gott om blad av blåsippa.</t>
+          <t>10 fruktkroppar av granticka på en levande gran med uthackat bohål. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2684,7 +2683,32 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig äldre skog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>En levande gran med uthackat bohål.</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies # En levande gran med uthackat bohål.</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2702,10 +2726,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111662843</v>
+        <v>111662301</v>
       </c>
       <c r="B17" t="n">
-        <v>98535</v>
+        <v>96348</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2714,53 +2738,57 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>överblommad</t>
         </is>
       </c>
       <c r="L17" t="inlineStr"/>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Spikbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>485568.4115727905</v>
+        <v>485562.0989985527</v>
       </c>
       <c r="R17" t="n">
-        <v>7005800.49898608</v>
+        <v>7005804.591439915</v>
       </c>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2800,6 +2828,11 @@
       <c r="AB17" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Minst 17 st. skott/stjälkar och 3 st. överblommade blomstänglar av knärot på två delytor inom ca 5 meters radie från fyndplatsens GPS-position. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2819,7 +2852,7 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig kontinuitetsskog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
@@ -2837,7 +2870,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111663186</v>
+        <v>111663810</v>
       </c>
       <c r="B18" t="n">
         <v>96368</v>
@@ -2872,7 +2905,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2897,10 +2930,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>485592.9227098347</v>
+        <v>485613.4985160928</v>
       </c>
       <c r="R18" t="n">
-        <v>7005821.162446524</v>
+        <v>7005872.099109154</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2947,7 +2980,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>Minst 16 st. skott/stjälkar av spindelblomster och minst 1 st. överblommad blomstängel. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Minst 3 skott/stjälkar av spindelblomster. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2985,10 +3018,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111662301</v>
+        <v>111663186</v>
       </c>
       <c r="B19" t="n">
-        <v>96348</v>
+        <v>96368</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2997,30 +3030,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>220787</v>
+        <v>221952</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -3034,20 +3067,24 @@
         </is>
       </c>
       <c r="L19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr">
         <is>
           <t>Spikbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>485562.0989985527</v>
+        <v>485592.9227098347</v>
       </c>
       <c r="R19" t="n">
-        <v>7005804.591439915</v>
+        <v>7005821.162446524</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -3091,7 +3128,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>Minst 17 st. skott/stjälkar och 3 st. överblommade blomstänglar av knärot på två delytor inom ca 5 meters radie från fyndplatsens GPS-position. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Minst 16 st. skott/stjälkar av spindelblomster och minst 1 st. överblommad blomstängel. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -3111,7 +3148,7 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig kontinuitetsskog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -3129,10 +3166,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111663810</v>
+        <v>111662843</v>
       </c>
       <c r="B20" t="n">
-        <v>96368</v>
+        <v>98535</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -3145,36 +3182,28 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>221952</v>
+        <v>222498</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>överblommad</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="L20" t="inlineStr"/>
@@ -3189,10 +3218,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>485613.4985160928</v>
+        <v>485568.4115727905</v>
       </c>
       <c r="R20" t="n">
-        <v>7005872.099109154</v>
+        <v>7005800.49898608</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -3235,11 +3264,6 @@
       <c r="AB20" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Minst 3 skott/stjälkar av spindelblomster. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3425,7 +3449,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111662489</v>
+        <v>111662960</v>
       </c>
       <c r="B22" t="n">
         <v>96348</v>
@@ -3460,7 +3484,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>880</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -3485,10 +3509,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>485568.4115727905</v>
+        <v>485592.9227098347</v>
       </c>
       <c r="R22" t="n">
-        <v>7005800.49898608</v>
+        <v>7005821.162446524</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3535,7 +3559,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Minst 116 st. skott/stjälkar och 6 st. överblommade blomstänglar av knärot. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Här finns rikligt med knärot i en mer luckig del av skogen. Minst 880 st. skott/stjälkar och 63 st. överblommade blomstänglar av knärot inom en yta på ca 6 m2. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3555,7 +3579,7 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad, luckig och äldre skog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3573,7 +3597,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111662960</v>
+        <v>111662489</v>
       </c>
       <c r="B23" t="n">
         <v>96348</v>
@@ -3608,7 +3632,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>116</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -3633,10 +3657,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>485592.9227098347</v>
+        <v>485568.4115727905</v>
       </c>
       <c r="R23" t="n">
-        <v>7005821.162446524</v>
+        <v>7005800.49898608</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3683,7 +3707,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>Här finns rikligt med knärot i en mer luckig del av skogen. Minst 880 st. skott/stjälkar och 63 st. överblommade blomstänglar av knärot inom en yta på ca 6 m2. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Minst 116 st. skott/stjälkar och 6 st. överblommade blomstänglar av knärot. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3703,7 +3727,7 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad, luckig och äldre skog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3721,10 +3745,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111663463</v>
+        <v>111662745</v>
       </c>
       <c r="B24" t="n">
-        <v>89423</v>
+        <v>98535</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3733,49 +3757,50 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5432</v>
+        <v>222498</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Spikbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>485606.9225669679</v>
+        <v>485562.0989985527</v>
       </c>
       <c r="R24" t="n">
-        <v>7005817.035828291</v>
+        <v>7005804.591439915</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3822,7 +3847,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>10 fruktkroppar av granticka på en levande gran med uthackat bohål. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Relativt gott om blad av blåsippa.</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3842,32 +3867,7 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
-        </is>
-      </c>
-      <c r="AJ24" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK24" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL24" t="inlineStr">
-        <is>
-          <t>En levande gran med uthackat bohål.</t>
-        </is>
-      </c>
-      <c r="AM24" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO24" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies # En levande gran med uthackat bohål.</t>
+          <t>Grandominerad, flerskiktad och luckig äldre skog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>

--- a/artfynd/A 32699-2023.xlsx
+++ b/artfynd/A 32699-2023.xlsx
@@ -2726,10 +2726,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111662301</v>
+        <v>111662745</v>
       </c>
       <c r="B17" t="n">
-        <v>96348</v>
+        <v>98535</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2738,44 +2738,40 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>överblommad</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="L17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Spikbodarna, Jmt</t>
@@ -2832,7 +2828,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>Minst 17 st. skott/stjälkar och 3 st. överblommade blomstänglar av knärot på två delytor inom ca 5 meters radie från fyndplatsens GPS-position. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Relativt gott om blad av blåsippa.</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2852,7 +2848,7 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig kontinuitetsskog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig äldre skog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
@@ -2870,10 +2866,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111663810</v>
+        <v>111662489</v>
       </c>
       <c r="B18" t="n">
-        <v>96368</v>
+        <v>96348</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2882,30 +2878,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>221952</v>
+        <v>220787</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>116</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2930,10 +2926,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>485613.4985160928</v>
+        <v>485568.4115727905</v>
       </c>
       <c r="R18" t="n">
-        <v>7005872.099109154</v>
+        <v>7005800.49898608</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2980,7 +2976,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>Minst 3 skott/stjälkar av spindelblomster. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Minst 116 st. skott/stjälkar och 6 st. överblommade blomstänglar av knärot. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -3000,7 +2996,7 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad, luckig och äldre skog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -3018,10 +3014,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111663186</v>
+        <v>111662843</v>
       </c>
       <c r="B19" t="n">
-        <v>96368</v>
+        <v>98535</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -3034,36 +3030,28 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>221952</v>
+        <v>222498</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>överblommad</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="L19" t="inlineStr"/>
@@ -3078,10 +3066,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>485592.9227098347</v>
+        <v>485568.4115727905</v>
       </c>
       <c r="R19" t="n">
-        <v>7005821.162446524</v>
+        <v>7005800.49898608</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -3124,11 +3112,6 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Minst 16 st. skott/stjälkar av spindelblomster och minst 1 st. överblommad blomstängel. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -3166,10 +3149,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111662843</v>
+        <v>111663810</v>
       </c>
       <c r="B20" t="n">
-        <v>98535</v>
+        <v>96368</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -3182,28 +3165,36 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>222498</v>
+        <v>221952</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>överblommad</t>
         </is>
       </c>
       <c r="L20" t="inlineStr"/>
@@ -3218,10 +3209,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>485568.4115727905</v>
+        <v>485613.4985160928</v>
       </c>
       <c r="R20" t="n">
-        <v>7005800.49898608</v>
+        <v>7005872.099109154</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -3264,6 +3255,11 @@
       <c r="AB20" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Minst 3 skott/stjälkar av spindelblomster. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3301,10 +3297,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111664006</v>
+        <v>111662301</v>
       </c>
       <c r="B21" t="n">
-        <v>96368</v>
+        <v>96348</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3313,30 +3309,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>221952</v>
+        <v>220787</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>17</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -3350,21 +3346,17 @@
         </is>
       </c>
       <c r="L21" t="inlineStr"/>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Spikbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>485633.0508789647</v>
+        <v>485562.0989985527</v>
       </c>
       <c r="R21" t="n">
-        <v>7005896.397059018</v>
+        <v>7005804.591439915</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3411,7 +3403,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Minst 25 st. skott/stjälkar av spindelblomster varav minst ett skott som bär en överblommad blomstängel. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Minst 17 st. skott/stjälkar och 3 st. överblommade blomstänglar av knärot på två delytor inom ca 5 meters radie från fyndplatsens GPS-position. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3431,7 +3423,7 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig kontinuitetsskog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3449,10 +3441,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111662960</v>
+        <v>111663186</v>
       </c>
       <c r="B22" t="n">
-        <v>96348</v>
+        <v>96368</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3461,30 +3453,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>220787</v>
+        <v>221952</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>16</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -3559,7 +3551,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Här finns rikligt med knärot i en mer luckig del av skogen. Minst 880 st. skott/stjälkar och 63 st. överblommade blomstänglar av knärot inom en yta på ca 6 m2. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Minst 16 st. skott/stjälkar av spindelblomster och minst 1 st. överblommad blomstängel. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3597,10 +3589,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111662489</v>
+        <v>111663296</v>
       </c>
       <c r="B23" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3609,58 +3601,41 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr"/>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Spikbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>485568.4115727905</v>
+        <v>485609.6900141542</v>
       </c>
       <c r="R23" t="n">
-        <v>7005800.49898608</v>
+        <v>7005829.216201009</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3707,7 +3682,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>Minst 116 st. skott/stjälkar och 6 st. överblommade blomstänglar av knärot. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Enstaka bålar av garnlav på gran. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3727,7 +3702,22 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad, luckig och äldre skog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+        </is>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3745,10 +3735,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111662745</v>
+        <v>111662960</v>
       </c>
       <c r="B24" t="n">
-        <v>98535</v>
+        <v>96348</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3757,32 +3747,40 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>880</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>överblommad</t>
         </is>
       </c>
       <c r="L24" t="inlineStr"/>
@@ -3797,13 +3795,13 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>485562.0989985527</v>
+        <v>485592.9227098347</v>
       </c>
       <c r="R24" t="n">
-        <v>7005804.591439915</v>
+        <v>7005821.162446524</v>
       </c>
       <c r="S24" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3847,7 +3845,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>Relativt gott om blad av blåsippa.</t>
+          <t>Här finns rikligt med knärot i en mer luckig del av skogen. Minst 880 st. skott/stjälkar och 63 st. överblommade blomstänglar av knärot inom en yta på ca 6 m2. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3867,7 +3865,7 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig äldre skog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3885,10 +3883,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111663296</v>
+        <v>111664006</v>
       </c>
       <c r="B25" t="n">
-        <v>77515</v>
+        <v>96368</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3897,44 +3895,61 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Spikbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>485609.6900141542</v>
+        <v>485633.0508789647</v>
       </c>
       <c r="R25" t="n">
-        <v>7005829.216201009</v>
+        <v>7005896.397059018</v>
       </c>
       <c r="S25" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3978,7 +3993,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>Enstaka bålar av garnlav på gran. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Minst 25 st. skott/stjälkar av spindelblomster varav minst ett skott som bär en överblommad blomstängel. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3999,21 +4014,6 @@
       <c r="AI25" t="inlineStr">
         <is>
           <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
-        </is>
-      </c>
-      <c r="AJ25" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK25" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO25" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>

--- a/artfynd/A 32699-2023.xlsx
+++ b/artfynd/A 32699-2023.xlsx
@@ -3589,10 +3589,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111663296</v>
+        <v>111664006</v>
       </c>
       <c r="B23" t="n">
-        <v>77515</v>
+        <v>96368</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3601,44 +3601,61 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Spikbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>485609.6900141542</v>
+        <v>485633.0508789647</v>
       </c>
       <c r="R23" t="n">
-        <v>7005829.216201009</v>
+        <v>7005896.397059018</v>
       </c>
       <c r="S23" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3682,7 +3699,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>Enstaka bålar av garnlav på gran. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Minst 25 st. skott/stjälkar av spindelblomster varav minst ett skott som bär en överblommad blomstängel. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3703,21 +3720,6 @@
       <c r="AI23" t="inlineStr">
         <is>
           <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
-        </is>
-      </c>
-      <c r="AJ23" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK23" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO23" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3735,10 +3737,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111662960</v>
+        <v>111663296</v>
       </c>
       <c r="B24" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3747,58 +3749,41 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>880</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr"/>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Spikbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>485592.9227098347</v>
+        <v>485609.6900141542</v>
       </c>
       <c r="R24" t="n">
-        <v>7005821.162446524</v>
+        <v>7005829.216201009</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3845,7 +3830,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>Här finns rikligt med knärot i en mer luckig del av skogen. Minst 880 st. skott/stjälkar och 63 st. överblommade blomstänglar av knärot inom en yta på ca 6 m2. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Enstaka bålar av garnlav på gran. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3866,6 +3851,21 @@
       <c r="AI24" t="inlineStr">
         <is>
           <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+        </is>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3883,10 +3883,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111664006</v>
+        <v>111662960</v>
       </c>
       <c r="B25" t="n">
-        <v>96368</v>
+        <v>96348</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3895,30 +3895,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>221952</v>
+        <v>220787</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>880</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3943,13 +3943,13 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>485633.0508789647</v>
+        <v>485592.9227098347</v>
       </c>
       <c r="R25" t="n">
-        <v>7005896.397059018</v>
+        <v>7005821.162446524</v>
       </c>
       <c r="S25" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>Minst 25 st. skott/stjälkar av spindelblomster varav minst ett skott som bär en överblommad blomstängel. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Här finns rikligt med knärot i en mer luckig del av skogen. Minst 880 st. skott/stjälkar och 63 st. överblommade blomstänglar av knärot inom en yta på ca 6 m2. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD25" t="b">

--- a/artfynd/A 32699-2023.xlsx
+++ b/artfynd/A 32699-2023.xlsx
@@ -2562,10 +2562,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111663463</v>
+        <v>111663186</v>
       </c>
       <c r="B16" t="n">
-        <v>89423</v>
+        <v>96368</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2574,52 +2574,61 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5432</v>
+        <v>221952</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>16</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr">
         <is>
           <t>Spikbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>485606.9225669679</v>
+        <v>485592.9227098347</v>
       </c>
       <c r="R16" t="n">
-        <v>7005817.035828291</v>
+        <v>7005821.162446524</v>
       </c>
       <c r="S16" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2663,7 +2672,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>10 fruktkroppar av granticka på en levande gran med uthackat bohål. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Minst 16 st. skott/stjälkar av spindelblomster och minst 1 st. överblommad blomstängel. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2684,31 +2693,6 @@
       <c r="AI16" t="inlineStr">
         <is>
           <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
-        </is>
-      </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL16" t="inlineStr">
-        <is>
-          <t>En levande gran med uthackat bohål.</t>
-        </is>
-      </c>
-      <c r="AM16" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies # En levande gran med uthackat bohål.</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2726,7 +2710,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111662745</v>
+        <v>111662843</v>
       </c>
       <c r="B17" t="n">
         <v>98535</v>
@@ -2778,13 +2762,13 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>485562.0989985527</v>
+        <v>485568.4115727905</v>
       </c>
       <c r="R17" t="n">
-        <v>7005804.591439915</v>
+        <v>7005800.49898608</v>
       </c>
       <c r="S17" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2824,11 +2808,6 @@
       <c r="AB17" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Relativt gott om blad av blåsippa.</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2848,7 +2827,7 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig äldre skog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
@@ -2866,10 +2845,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111662489</v>
+        <v>111663810</v>
       </c>
       <c r="B18" t="n">
-        <v>96348</v>
+        <v>96368</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2878,30 +2857,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>220787</v>
+        <v>221952</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2926,10 +2905,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>485568.4115727905</v>
+        <v>485613.4985160928</v>
       </c>
       <c r="R18" t="n">
-        <v>7005800.49898608</v>
+        <v>7005872.099109154</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2976,7 +2955,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>Minst 116 st. skott/stjälkar och 6 st. överblommade blomstänglar av knärot. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Minst 3 skott/stjälkar av spindelblomster. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2996,7 +2975,7 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad, luckig och äldre skog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -3014,10 +2993,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111662843</v>
+        <v>111663296</v>
       </c>
       <c r="B19" t="n">
-        <v>98535</v>
+        <v>77515</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -3026,50 +3005,41 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>222498</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Spikbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>485568.4115727905</v>
+        <v>485609.6900141542</v>
       </c>
       <c r="R19" t="n">
-        <v>7005800.49898608</v>
+        <v>7005829.216201009</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -3114,6 +3084,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Enstaka bålar av garnlav på gran. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+        </is>
+      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
@@ -3132,6 +3107,21 @@
       <c r="AI19" t="inlineStr">
         <is>
           <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -3149,10 +3139,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111663810</v>
+        <v>111662960</v>
       </c>
       <c r="B20" t="n">
-        <v>96368</v>
+        <v>96348</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -3161,30 +3151,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>221952</v>
+        <v>220787</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>880</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -3209,10 +3199,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>485613.4985160928</v>
+        <v>485592.9227098347</v>
       </c>
       <c r="R20" t="n">
-        <v>7005872.099109154</v>
+        <v>7005821.162446524</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -3259,7 +3249,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>Minst 3 skott/stjälkar av spindelblomster. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Här finns rikligt med knärot i en mer luckig del av skogen. Minst 880 st. skott/stjälkar och 63 st. överblommade blomstänglar av knärot inom en yta på ca 6 m2. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3297,10 +3287,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111662301</v>
+        <v>111663463</v>
       </c>
       <c r="B21" t="n">
-        <v>96348</v>
+        <v>89423</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3309,43 +3299,38 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>220787</v>
+        <v>5432</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr"/>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -3353,10 +3338,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>485562.0989985527</v>
+        <v>485606.9225669679</v>
       </c>
       <c r="R21" t="n">
-        <v>7005804.591439915</v>
+        <v>7005817.035828291</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3403,7 +3388,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Minst 17 st. skott/stjälkar och 3 st. överblommade blomstänglar av knärot på två delytor inom ca 5 meters radie från fyndplatsens GPS-position. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>10 fruktkroppar av granticka på en levande gran med uthackat bohål. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3423,7 +3408,32 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig kontinuitetsskog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+        </is>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL21" t="inlineStr">
+        <is>
+          <t>En levande gran med uthackat bohål.</t>
+        </is>
+      </c>
+      <c r="AM21" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies # En levande gran med uthackat bohål.</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3441,7 +3451,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111663186</v>
+        <v>111664006</v>
       </c>
       <c r="B22" t="n">
         <v>96368</v>
@@ -3476,7 +3486,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -3501,13 +3511,13 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>485592.9227098347</v>
+        <v>485633.0508789647</v>
       </c>
       <c r="R22" t="n">
-        <v>7005821.162446524</v>
+        <v>7005896.397059018</v>
       </c>
       <c r="S22" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3551,7 +3561,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Minst 16 st. skott/stjälkar av spindelblomster och minst 1 st. överblommad blomstängel. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Minst 25 st. skott/stjälkar av spindelblomster varav minst ett skott som bär en överblommad blomstängel. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3589,10 +3599,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111664006</v>
+        <v>111662745</v>
       </c>
       <c r="B23" t="n">
-        <v>96368</v>
+        <v>98535</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3605,36 +3615,28 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>221952</v>
+        <v>222498</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>överblommad</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="L23" t="inlineStr"/>
@@ -3649,10 +3651,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>485633.0508789647</v>
+        <v>485562.0989985527</v>
       </c>
       <c r="R23" t="n">
-        <v>7005896.397059018</v>
+        <v>7005804.591439915</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3699,7 +3701,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>Minst 25 st. skott/stjälkar av spindelblomster varav minst ett skott som bär en överblommad blomstängel. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Relativt gott om blad av blåsippa.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3719,7 +3721,7 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig äldre skog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3737,10 +3739,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111663296</v>
+        <v>111662489</v>
       </c>
       <c r="B24" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3749,41 +3751,58 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Spikbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>485609.6900141542</v>
+        <v>485568.4115727905</v>
       </c>
       <c r="R24" t="n">
-        <v>7005829.216201009</v>
+        <v>7005800.49898608</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3830,7 +3849,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>Enstaka bålar av garnlav på gran. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Minst 116 st. skott/stjälkar och 6 st. överblommade blomstänglar av knärot. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3850,22 +3869,7 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
-        </is>
-      </c>
-      <c r="AJ24" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK24" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO24" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
+          <t>Grandominerad, flerskiktad, luckig och äldre skog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3883,7 +3887,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111662960</v>
+        <v>111662301</v>
       </c>
       <c r="B25" t="n">
         <v>96348</v>
@@ -3918,7 +3922,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>17</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3932,24 +3936,20 @@
         </is>
       </c>
       <c r="L25" t="inlineStr"/>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Spikbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>485592.9227098347</v>
+        <v>485562.0989985527</v>
       </c>
       <c r="R25" t="n">
-        <v>7005821.162446524</v>
+        <v>7005804.591439915</v>
       </c>
       <c r="S25" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>Här finns rikligt med knärot i en mer luckig del av skogen. Minst 880 st. skott/stjälkar och 63 st. överblommade blomstänglar av knärot inom en yta på ca 6 m2. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Minst 17 st. skott/stjälkar och 3 st. överblommade blomstänglar av knärot på två delytor inom ca 5 meters radie från fyndplatsens GPS-position. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -4013,7 +4013,7 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig kontinuitetsskog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>

--- a/artfynd/A 32699-2023.xlsx
+++ b/artfynd/A 32699-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY25"/>
+  <dimension ref="A1:AY35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2562,10 +2562,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111663186</v>
+        <v>111662301</v>
       </c>
       <c r="B16" t="n">
-        <v>96368</v>
+        <v>96348</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2574,30 +2574,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>221952</v>
+        <v>220787</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2611,24 +2611,20 @@
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Spikbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>485592.9227098347</v>
+        <v>485562.0989985527</v>
       </c>
       <c r="R16" t="n">
-        <v>7005821.162446524</v>
+        <v>7005804.591439915</v>
       </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2672,7 +2668,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Minst 16 st. skott/stjälkar av spindelblomster och minst 1 st. överblommad blomstängel. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Minst 17 st. skott/stjälkar och 3 st. överblommade blomstänglar av knärot på två delytor inom ca 5 meters radie från fyndplatsens GPS-position. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2692,7 +2688,7 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig kontinuitetsskog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2845,7 +2841,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111663810</v>
+        <v>111664006</v>
       </c>
       <c r="B18" t="n">
         <v>96368</v>
@@ -2880,7 +2876,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2905,13 +2901,13 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>485613.4985160928</v>
+        <v>485633.0508789647</v>
       </c>
       <c r="R18" t="n">
-        <v>7005872.099109154</v>
+        <v>7005896.397059018</v>
       </c>
       <c r="S18" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2955,7 +2951,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>Minst 3 skott/stjälkar av spindelblomster. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Minst 25 st. skott/stjälkar av spindelblomster varav minst ett skott som bär en överblommad blomstängel. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2993,10 +2989,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111663296</v>
+        <v>111662960</v>
       </c>
       <c r="B19" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -3005,41 +3001,58 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>880</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr">
         <is>
           <t>Spikbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>485609.6900141542</v>
+        <v>485592.9227098347</v>
       </c>
       <c r="R19" t="n">
-        <v>7005829.216201009</v>
+        <v>7005821.162446524</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -3086,7 +3099,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>Enstaka bålar av garnlav på gran. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Här finns rikligt med knärot i en mer luckig del av skogen. Minst 880 st. skott/stjälkar och 63 st. överblommade blomstänglar av knärot inom en yta på ca 6 m2. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -3107,21 +3120,6 @@
       <c r="AI19" t="inlineStr">
         <is>
           <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
-        </is>
-      </c>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK19" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -3139,10 +3137,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111662960</v>
+        <v>111663810</v>
       </c>
       <c r="B20" t="n">
-        <v>96348</v>
+        <v>96368</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -3151,30 +3149,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>220787</v>
+        <v>221952</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -3199,10 +3197,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>485592.9227098347</v>
+        <v>485613.4985160928</v>
       </c>
       <c r="R20" t="n">
-        <v>7005821.162446524</v>
+        <v>7005872.099109154</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -3249,7 +3247,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>Här finns rikligt med knärot i en mer luckig del av skogen. Minst 880 st. skott/stjälkar och 63 st. överblommade blomstänglar av knärot inom en yta på ca 6 m2. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Minst 3 skott/stjälkar av spindelblomster. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3287,10 +3285,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111663463</v>
+        <v>111662745</v>
       </c>
       <c r="B21" t="n">
-        <v>89423</v>
+        <v>98535</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3299,49 +3297,50 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5432</v>
+        <v>222498</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>Spikbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>485606.9225669679</v>
+        <v>485562.0989985527</v>
       </c>
       <c r="R21" t="n">
-        <v>7005817.035828291</v>
+        <v>7005804.591439915</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3388,7 +3387,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>10 fruktkroppar av granticka på en levande gran med uthackat bohål. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Relativt gott om blad av blåsippa.</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3408,32 +3407,7 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
-        </is>
-      </c>
-      <c r="AJ21" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK21" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL21" t="inlineStr">
-        <is>
-          <t>En levande gran med uthackat bohål.</t>
-        </is>
-      </c>
-      <c r="AM21" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO21" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies # En levande gran med uthackat bohål.</t>
+          <t>Grandominerad, flerskiktad och luckig äldre skog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3451,7 +3425,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111664006</v>
+        <v>111663186</v>
       </c>
       <c r="B22" t="n">
         <v>96368</v>
@@ -3486,7 +3460,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -3511,13 +3485,13 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>485633.0508789647</v>
+        <v>485592.9227098347</v>
       </c>
       <c r="R22" t="n">
-        <v>7005896.397059018</v>
+        <v>7005821.162446524</v>
       </c>
       <c r="S22" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3561,7 +3535,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Minst 25 st. skott/stjälkar av spindelblomster varav minst ett skott som bär en överblommad blomstängel. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Minst 16 st. skott/stjälkar av spindelblomster och minst 1 st. överblommad blomstängel. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3599,10 +3573,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111662745</v>
+        <v>111663296</v>
       </c>
       <c r="B23" t="n">
-        <v>98535</v>
+        <v>77515</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3611,53 +3585,44 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>222498</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr"/>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Spikbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>485562.0989985527</v>
+        <v>485609.6900141542</v>
       </c>
       <c r="R23" t="n">
-        <v>7005804.591439915</v>
+        <v>7005829.216201009</v>
       </c>
       <c r="S23" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3701,7 +3666,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>Relativt gott om blad av blåsippa.</t>
+          <t>Enstaka bålar av garnlav på gran. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3721,7 +3686,22 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig äldre skog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+        </is>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3739,10 +3719,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111662489</v>
+        <v>111663463</v>
       </c>
       <c r="B24" t="n">
-        <v>96348</v>
+        <v>89423</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3751,61 +3731,52 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>220787</v>
+        <v>5432</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr"/>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Spikbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>485568.4115727905</v>
+        <v>485606.9225669679</v>
       </c>
       <c r="R24" t="n">
-        <v>7005800.49898608</v>
+        <v>7005817.035828291</v>
       </c>
       <c r="S24" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3849,7 +3820,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>Minst 116 st. skott/stjälkar och 6 st. överblommade blomstänglar av knärot. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>10 fruktkroppar av granticka på en levande gran med uthackat bohål. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3869,7 +3840,32 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad, luckig och äldre skog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+        </is>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL24" t="inlineStr">
+        <is>
+          <t>En levande gran med uthackat bohål.</t>
+        </is>
+      </c>
+      <c r="AM24" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies # En levande gran med uthackat bohål.</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3887,7 +3883,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111662301</v>
+        <v>111662489</v>
       </c>
       <c r="B25" t="n">
         <v>96348</v>
@@ -3922,7 +3918,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>116</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3936,20 +3932,24 @@
         </is>
       </c>
       <c r="L25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Spikbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>485562.0989985527</v>
+        <v>485568.4115727905</v>
       </c>
       <c r="R25" t="n">
-        <v>7005804.591439915</v>
+        <v>7005800.49898608</v>
       </c>
       <c r="S25" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>Minst 17 st. skott/stjälkar och 3 st. överblommade blomstänglar av knärot på två delytor inom ca 5 meters radie från fyndplatsens GPS-position. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Minst 116 st. skott/stjälkar och 6 st. överblommade blomstänglar av knärot. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -4013,7 +4013,7 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig kontinuitetsskog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad, luckig och äldre skog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
@@ -4028,6 +4028,1126 @@
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>112076818</v>
+      </c>
+      <c r="B26" t="n">
+        <v>88899</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>3286</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Flattoppad klubbsvamp</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Clavariadelphus truncatus</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(Quél.) Donk</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>spikbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>485662.1971341744</v>
+      </c>
+      <c r="R26" t="n">
+        <v>7005637.055439875</v>
+      </c>
+      <c r="S26" t="n">
+        <v>10</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>112076814</v>
+      </c>
+      <c r="B27" t="n">
+        <v>90087</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>3298</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Trådticka</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Climacocystis borealis</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>spikbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>485714.0124070282</v>
+      </c>
+      <c r="R27" t="n">
+        <v>7005798.497326628</v>
+      </c>
+      <c r="S27" t="n">
+        <v>10</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>112076812</v>
+      </c>
+      <c r="B28" t="n">
+        <v>86223</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>4412</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Äggvaxskivling</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Hygrophorus karstenii</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Sacc. &amp; Cub.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>spikbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>485781.0477857835</v>
+      </c>
+      <c r="R28" t="n">
+        <v>7005720.528212192</v>
+      </c>
+      <c r="S28" t="n">
+        <v>10</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>112076820</v>
+      </c>
+      <c r="B29" t="n">
+        <v>98535</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>spikbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>485535.6276996838</v>
+      </c>
+      <c r="R29" t="n">
+        <v>7005851.222630193</v>
+      </c>
+      <c r="S29" t="n">
+        <v>10</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>112076816</v>
+      </c>
+      <c r="B30" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>spikbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>485617.7772895112</v>
+      </c>
+      <c r="R30" t="n">
+        <v>7005614.220750399</v>
+      </c>
+      <c r="S30" t="n">
+        <v>10</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>112076817</v>
+      </c>
+      <c r="B31" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>spikbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>485595.6124165796</v>
+      </c>
+      <c r="R31" t="n">
+        <v>7005612.964627018</v>
+      </c>
+      <c r="S31" t="n">
+        <v>10</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>112076819</v>
+      </c>
+      <c r="B32" t="n">
+        <v>98535</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>spikbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>485663.6504581</v>
+      </c>
+      <c r="R32" t="n">
+        <v>7005760.78700736</v>
+      </c>
+      <c r="S32" t="n">
+        <v>10</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>112076811</v>
+      </c>
+      <c r="B33" t="n">
+        <v>86223</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>4412</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Äggvaxskivling</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Hygrophorus karstenii</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Sacc. &amp; Cub.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>spikbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>485716.309309206</v>
+      </c>
+      <c r="R33" t="n">
+        <v>7005806.615687455</v>
+      </c>
+      <c r="S33" t="n">
+        <v>10</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX33" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>112076813</v>
+      </c>
+      <c r="B34" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>spikbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>485751.5946542841</v>
+      </c>
+      <c r="R34" t="n">
+        <v>7005707.110036955</v>
+      </c>
+      <c r="S34" t="n">
+        <v>10</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX34" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>112076815</v>
+      </c>
+      <c r="B35" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>spikbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>485636.3825799476</v>
+      </c>
+      <c r="R35" t="n">
+        <v>7005628.589513555</v>
+      </c>
+      <c r="S35" t="n">
+        <v>10</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AW35" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX35" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 32699-2023.xlsx
+++ b/artfynd/A 32699-2023.xlsx
@@ -2706,10 +2706,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111662843</v>
+        <v>111663463</v>
       </c>
       <c r="B17" t="n">
-        <v>98535</v>
+        <v>89423</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2718,53 +2718,52 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>222498</v>
+        <v>5432</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Spikbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>485568.4115727905</v>
+        <v>485606.9225669679</v>
       </c>
       <c r="R17" t="n">
-        <v>7005800.49898608</v>
+        <v>7005817.035828291</v>
       </c>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2804,6 +2803,11 @@
       <c r="AB17" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>10 fruktkroppar av granticka på en levande gran med uthackat bohål. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2824,6 +2828,31 @@
       <c r="AI17" t="inlineStr">
         <is>
           <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t>En levande gran med uthackat bohål.</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies # En levande gran med uthackat bohål.</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
@@ -2841,10 +2870,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111664006</v>
+        <v>111662843</v>
       </c>
       <c r="B18" t="n">
-        <v>96368</v>
+        <v>98535</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2857,36 +2886,28 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>221952</v>
+        <v>222498</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>överblommad</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="L18" t="inlineStr"/>
@@ -2901,13 +2922,13 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>485633.0508789647</v>
+        <v>485568.4115727905</v>
       </c>
       <c r="R18" t="n">
-        <v>7005896.397059018</v>
+        <v>7005800.49898608</v>
       </c>
       <c r="S18" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2947,11 +2968,6 @@
       <c r="AB18" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Minst 25 st. skott/stjälkar av spindelblomster varav minst ett skott som bär en överblommad blomstängel. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2989,10 +3005,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111662960</v>
+        <v>111663810</v>
       </c>
       <c r="B19" t="n">
-        <v>96348</v>
+        <v>96368</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -3001,30 +3017,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>220787</v>
+        <v>221952</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -3049,10 +3065,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>485592.9227098347</v>
+        <v>485613.4985160928</v>
       </c>
       <c r="R19" t="n">
-        <v>7005821.162446524</v>
+        <v>7005872.099109154</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -3099,7 +3115,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>Här finns rikligt med knärot i en mer luckig del av skogen. Minst 880 st. skott/stjälkar och 63 st. överblommade blomstänglar av knärot inom en yta på ca 6 m2. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Minst 3 skott/stjälkar av spindelblomster. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -3137,10 +3153,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111663810</v>
+        <v>111662745</v>
       </c>
       <c r="B20" t="n">
-        <v>96368</v>
+        <v>98535</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -3153,36 +3169,28 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>221952</v>
+        <v>222498</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>överblommad</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="L20" t="inlineStr"/>
@@ -3197,13 +3205,13 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>485613.4985160928</v>
+        <v>485562.0989985527</v>
       </c>
       <c r="R20" t="n">
-        <v>7005872.099109154</v>
+        <v>7005804.591439915</v>
       </c>
       <c r="S20" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -3247,7 +3255,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>Minst 3 skott/stjälkar av spindelblomster. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Relativt gott om blad av blåsippa.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3267,7 +3275,7 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig äldre skog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -3285,10 +3293,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111662745</v>
+        <v>111663296</v>
       </c>
       <c r="B21" t="n">
-        <v>98535</v>
+        <v>77515</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3297,53 +3305,44 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>222498</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Spikbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>485562.0989985527</v>
+        <v>485609.6900141542</v>
       </c>
       <c r="R21" t="n">
-        <v>7005804.591439915</v>
+        <v>7005829.216201009</v>
       </c>
       <c r="S21" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3387,7 +3386,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Relativt gott om blad av blåsippa.</t>
+          <t>Enstaka bålar av garnlav på gran. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3407,7 +3406,22 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig äldre skog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+        </is>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3425,10 +3439,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111663186</v>
+        <v>111662960</v>
       </c>
       <c r="B22" t="n">
-        <v>96368</v>
+        <v>96348</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3437,30 +3451,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>221952</v>
+        <v>220787</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>880</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -3535,7 +3549,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Minst 16 st. skott/stjälkar av spindelblomster och minst 1 st. överblommad blomstängel. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Här finns rikligt med knärot i en mer luckig del av skogen. Minst 880 st. skott/stjälkar och 63 st. överblommade blomstänglar av knärot inom en yta på ca 6 m2. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3573,10 +3587,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111663296</v>
+        <v>111662489</v>
       </c>
       <c r="B23" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3585,41 +3599,58 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Spikbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>485609.6900141542</v>
+        <v>485568.4115727905</v>
       </c>
       <c r="R23" t="n">
-        <v>7005829.216201009</v>
+        <v>7005800.49898608</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3666,7 +3697,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>Enstaka bålar av garnlav på gran. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Minst 116 st. skott/stjälkar och 6 st. överblommade blomstänglar av knärot. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3686,22 +3717,7 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
-        </is>
-      </c>
-      <c r="AJ23" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK23" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO23" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
+          <t>Grandominerad, flerskiktad, luckig och äldre skog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3719,10 +3735,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111663463</v>
+        <v>111664006</v>
       </c>
       <c r="B24" t="n">
-        <v>89423</v>
+        <v>96368</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3731,49 +3747,58 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5432</v>
+        <v>221952</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Spikbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>485606.9225669679</v>
+        <v>485633.0508789647</v>
       </c>
       <c r="R24" t="n">
-        <v>7005817.035828291</v>
+        <v>7005896.397059018</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3820,7 +3845,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>10 fruktkroppar av granticka på en levande gran med uthackat bohål. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Minst 25 st. skott/stjälkar av spindelblomster varav minst ett skott som bär en överblommad blomstängel. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3841,31 +3866,6 @@
       <c r="AI24" t="inlineStr">
         <is>
           <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
-        </is>
-      </c>
-      <c r="AJ24" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK24" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL24" t="inlineStr">
-        <is>
-          <t>En levande gran med uthackat bohål.</t>
-        </is>
-      </c>
-      <c r="AM24" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO24" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies # En levande gran med uthackat bohål.</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3883,10 +3883,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111662489</v>
+        <v>111663186</v>
       </c>
       <c r="B25" t="n">
-        <v>96348</v>
+        <v>96368</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3895,30 +3895,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>220787</v>
+        <v>221952</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>16</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3943,10 +3943,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>485568.4115727905</v>
+        <v>485592.9227098347</v>
       </c>
       <c r="R25" t="n">
-        <v>7005800.49898608</v>
+        <v>7005821.162446524</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>Minst 116 st. skott/stjälkar och 6 st. överblommade blomstänglar av knärot. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Minst 16 st. skott/stjälkar av spindelblomster och minst 1 st. överblommad blomstängel. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -4013,7 +4013,7 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad, luckig och äldre skog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
@@ -4143,10 +4143,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112076814</v>
+        <v>112076817</v>
       </c>
       <c r="B27" t="n">
-        <v>90087</v>
+        <v>96348</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -4155,25 +4155,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>3298</v>
+        <v>220787</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -4183,10 +4183,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>485714.0124070282</v>
+        <v>485595.6124165796</v>
       </c>
       <c r="R27" t="n">
-        <v>7005798.497326628</v>
+        <v>7005612.964627018</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -4255,10 +4255,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112076812</v>
+        <v>112076814</v>
       </c>
       <c r="B28" t="n">
-        <v>86223</v>
+        <v>90087</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -4267,25 +4267,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4412</v>
+        <v>3298</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -4295,10 +4295,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>485781.0477857835</v>
+        <v>485714.0124070282</v>
       </c>
       <c r="R28" t="n">
-        <v>7005720.528212192</v>
+        <v>7005798.497326628</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -4367,10 +4367,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112076820</v>
+        <v>112076811</v>
       </c>
       <c r="B29" t="n">
-        <v>98535</v>
+        <v>86223</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -4379,25 +4379,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>222498</v>
+        <v>4412</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -4407,10 +4407,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>485535.6276996838</v>
+        <v>485716.309309206</v>
       </c>
       <c r="R29" t="n">
-        <v>7005851.222630193</v>
+        <v>7005806.615687455</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4479,10 +4479,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112076816</v>
+        <v>112076813</v>
       </c>
       <c r="B30" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4491,25 +4491,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4519,10 +4519,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>485617.7772895112</v>
+        <v>485751.5946542841</v>
       </c>
       <c r="R30" t="n">
-        <v>7005614.220750399</v>
+        <v>7005707.110036955</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4591,10 +4591,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112076817</v>
+        <v>112076820</v>
       </c>
       <c r="B31" t="n">
-        <v>96348</v>
+        <v>98535</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4603,25 +4603,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4631,10 +4631,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>485595.6124165796</v>
+        <v>485535.6276996838</v>
       </c>
       <c r="R31" t="n">
-        <v>7005612.964627018</v>
+        <v>7005851.222630193</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4703,10 +4703,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112076819</v>
+        <v>112076816</v>
       </c>
       <c r="B32" t="n">
-        <v>98535</v>
+        <v>96348</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4715,25 +4715,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4743,10 +4743,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>485663.6504581</v>
+        <v>485617.7772895112</v>
       </c>
       <c r="R32" t="n">
-        <v>7005760.78700736</v>
+        <v>7005614.220750399</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4815,10 +4815,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112076811</v>
+        <v>112076815</v>
       </c>
       <c r="B33" t="n">
-        <v>86223</v>
+        <v>96348</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4827,25 +4827,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>4412</v>
+        <v>220787</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4855,10 +4855,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>485716.309309206</v>
+        <v>485636.3825799476</v>
       </c>
       <c r="R33" t="n">
-        <v>7005806.615687455</v>
+        <v>7005628.589513555</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4927,10 +4927,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112076813</v>
+        <v>112076812</v>
       </c>
       <c r="B34" t="n">
-        <v>89405</v>
+        <v>86223</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4943,21 +4943,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1202</v>
+        <v>4412</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4967,10 +4967,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>485751.5946542841</v>
+        <v>485781.0477857835</v>
       </c>
       <c r="R34" t="n">
-        <v>7005707.110036955</v>
+        <v>7005720.528212192</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -5039,10 +5039,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112076815</v>
+        <v>112076819</v>
       </c>
       <c r="B35" t="n">
-        <v>96348</v>
+        <v>98535</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -5051,25 +5051,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -5079,10 +5079,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>485636.3825799476</v>
+        <v>485663.6504581</v>
       </c>
       <c r="R35" t="n">
-        <v>7005628.589513555</v>
+        <v>7005760.78700736</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>

--- a/artfynd/A 32699-2023.xlsx
+++ b/artfynd/A 32699-2023.xlsx
@@ -2562,10 +2562,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111662301</v>
+        <v>111662745</v>
       </c>
       <c r="B16" t="n">
-        <v>96348</v>
+        <v>98535</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2574,44 +2574,40 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>överblommad</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr">
         <is>
           <t>Spikbodarna, Jmt</t>
@@ -2668,7 +2664,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Minst 17 st. skott/stjälkar och 3 st. överblommade blomstänglar av knärot på två delytor inom ca 5 meters radie från fyndplatsens GPS-position. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Relativt gott om blad av blåsippa.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2688,7 +2684,7 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig kontinuitetsskog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig äldre skog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2706,10 +2702,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111663463</v>
+        <v>111663186</v>
       </c>
       <c r="B17" t="n">
-        <v>89423</v>
+        <v>96368</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2718,52 +2714,61 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5432</v>
+        <v>221952</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>16</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Spikbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>485606.9225669679</v>
+        <v>485592.9227098347</v>
       </c>
       <c r="R17" t="n">
-        <v>7005817.035828291</v>
+        <v>7005821.162446524</v>
       </c>
       <c r="S17" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2807,7 +2812,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>10 fruktkroppar av granticka på en levande gran med uthackat bohål. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Minst 16 st. skott/stjälkar av spindelblomster och minst 1 st. överblommad blomstängel. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2828,31 +2833,6 @@
       <c r="AI17" t="inlineStr">
         <is>
           <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
-        </is>
-      </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK17" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL17" t="inlineStr">
-        <is>
-          <t>En levande gran med uthackat bohål.</t>
-        </is>
-      </c>
-      <c r="AM17" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies # En levande gran med uthackat bohål.</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
@@ -2870,10 +2850,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111662843</v>
+        <v>111662301</v>
       </c>
       <c r="B18" t="n">
-        <v>98535</v>
+        <v>96348</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2882,53 +2862,57 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>överblommad</t>
         </is>
       </c>
       <c r="L18" t="inlineStr"/>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Spikbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>485568.4115727905</v>
+        <v>485562.0989985527</v>
       </c>
       <c r="R18" t="n">
-        <v>7005800.49898608</v>
+        <v>7005804.591439915</v>
       </c>
       <c r="S18" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2968,6 +2952,11 @@
       <c r="AB18" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Minst 17 st. skott/stjälkar och 3 st. överblommade blomstänglar av knärot på två delytor inom ca 5 meters radie från fyndplatsens GPS-position. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2987,7 +2976,7 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig kontinuitetsskog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -3005,10 +2994,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111663810</v>
+        <v>111662843</v>
       </c>
       <c r="B19" t="n">
-        <v>96368</v>
+        <v>98535</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -3021,36 +3010,28 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>221952</v>
+        <v>222498</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>överblommad</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="L19" t="inlineStr"/>
@@ -3065,10 +3046,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>485613.4985160928</v>
+        <v>485568.4115727905</v>
       </c>
       <c r="R19" t="n">
-        <v>7005872.099109154</v>
+        <v>7005800.49898608</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -3111,11 +3092,6 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Minst 3 skott/stjälkar av spindelblomster. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -3153,10 +3129,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111662745</v>
+        <v>111663463</v>
       </c>
       <c r="B20" t="n">
-        <v>98535</v>
+        <v>89423</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -3165,50 +3141,49 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>222498</v>
+        <v>5432</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Spikbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>485562.0989985527</v>
+        <v>485606.9225669679</v>
       </c>
       <c r="R20" t="n">
-        <v>7005804.591439915</v>
+        <v>7005817.035828291</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3255,7 +3230,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>Relativt gott om blad av blåsippa.</t>
+          <t>10 fruktkroppar av granticka på en levande gran med uthackat bohål. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3275,7 +3250,32 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig äldre skog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t>En levande gran med uthackat bohål.</t>
+        </is>
+      </c>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies # En levande gran med uthackat bohål.</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -3293,10 +3293,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111663296</v>
+        <v>111662960</v>
       </c>
       <c r="B21" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3305,41 +3305,58 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>880</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>Spikbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>485609.6900141542</v>
+        <v>485592.9227098347</v>
       </c>
       <c r="R21" t="n">
-        <v>7005829.216201009</v>
+        <v>7005821.162446524</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -3386,7 +3403,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Enstaka bålar av garnlav på gran. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Här finns rikligt med knärot i en mer luckig del av skogen. Minst 880 st. skott/stjälkar och 63 st. överblommade blomstänglar av knärot inom en yta på ca 6 m2. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3407,21 +3424,6 @@
       <c r="AI21" t="inlineStr">
         <is>
           <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
-        </is>
-      </c>
-      <c r="AJ21" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK21" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO21" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3439,7 +3441,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111662960</v>
+        <v>111662489</v>
       </c>
       <c r="B22" t="n">
         <v>96348</v>
@@ -3474,7 +3476,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>116</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -3499,10 +3501,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>485592.9227098347</v>
+        <v>485568.4115727905</v>
       </c>
       <c r="R22" t="n">
-        <v>7005821.162446524</v>
+        <v>7005800.49898608</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3549,7 +3551,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Här finns rikligt med knärot i en mer luckig del av skogen. Minst 880 st. skott/stjälkar och 63 st. överblommade blomstänglar av knärot inom en yta på ca 6 m2. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Minst 116 st. skott/stjälkar och 6 st. överblommade blomstänglar av knärot. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3569,7 +3571,7 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad, luckig och äldre skog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3587,10 +3589,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111662489</v>
+        <v>111663296</v>
       </c>
       <c r="B23" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3599,58 +3601,41 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr"/>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Spikbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>485568.4115727905</v>
+        <v>485609.6900141542</v>
       </c>
       <c r="R23" t="n">
-        <v>7005800.49898608</v>
+        <v>7005829.216201009</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3697,7 +3682,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>Minst 116 st. skott/stjälkar och 6 st. överblommade blomstänglar av knärot. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Enstaka bålar av garnlav på gran. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3717,7 +3702,22 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad, luckig och äldre skog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+        </is>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111663186</v>
+        <v>111663810</v>
       </c>
       <c r="B25" t="n">
         <v>96368</v>
@@ -3918,7 +3918,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3943,10 +3943,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>485592.9227098347</v>
+        <v>485613.4985160928</v>
       </c>
       <c r="R25" t="n">
-        <v>7005821.162446524</v>
+        <v>7005872.099109154</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>Minst 16 st. skott/stjälkar av spindelblomster och minst 1 st. överblommad blomstängel. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Minst 3 skott/stjälkar av spindelblomster. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -4031,10 +4031,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112076818</v>
+        <v>112076816</v>
       </c>
       <c r="B26" t="n">
-        <v>88899</v>
+        <v>96348</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -4043,25 +4043,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>3286</v>
+        <v>220787</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -4071,10 +4071,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>485662.1971341744</v>
+        <v>485617.7772895112</v>
       </c>
       <c r="R26" t="n">
-        <v>7005637.055439875</v>
+        <v>7005614.220750399</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -4143,10 +4143,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112076817</v>
+        <v>112076813</v>
       </c>
       <c r="B27" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -4155,25 +4155,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -4183,10 +4183,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>485595.6124165796</v>
+        <v>485751.5946542841</v>
       </c>
       <c r="R27" t="n">
-        <v>7005612.964627018</v>
+        <v>7005707.110036955</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -4255,10 +4255,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112076814</v>
+        <v>112076819</v>
       </c>
       <c r="B28" t="n">
-        <v>90087</v>
+        <v>98535</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -4271,21 +4271,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3298</v>
+        <v>222498</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -4295,10 +4295,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>485714.0124070282</v>
+        <v>485663.6504581</v>
       </c>
       <c r="R28" t="n">
-        <v>7005798.497326628</v>
+        <v>7005760.78700736</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -4367,7 +4367,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112076811</v>
+        <v>112076812</v>
       </c>
       <c r="B29" t="n">
         <v>86223</v>
@@ -4407,10 +4407,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>485716.309309206</v>
+        <v>485781.0477857835</v>
       </c>
       <c r="R29" t="n">
-        <v>7005806.615687455</v>
+        <v>7005720.528212192</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4479,10 +4479,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112076813</v>
+        <v>112076814</v>
       </c>
       <c r="B30" t="n">
-        <v>89405</v>
+        <v>90087</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4491,25 +4491,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1202</v>
+        <v>3298</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4519,10 +4519,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>485751.5946542841</v>
+        <v>485714.0124070282</v>
       </c>
       <c r="R30" t="n">
-        <v>7005707.110036955</v>
+        <v>7005798.497326628</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4703,10 +4703,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112076816</v>
+        <v>112076811</v>
       </c>
       <c r="B32" t="n">
-        <v>96348</v>
+        <v>86223</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4715,25 +4715,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>220787</v>
+        <v>4412</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4743,10 +4743,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>485617.7772895112</v>
+        <v>485716.309309206</v>
       </c>
       <c r="R32" t="n">
-        <v>7005614.220750399</v>
+        <v>7005806.615687455</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4815,7 +4815,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112076815</v>
+        <v>112076817</v>
       </c>
       <c r="B33" t="n">
         <v>96348</v>
@@ -4855,10 +4855,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>485636.3825799476</v>
+        <v>485595.6124165796</v>
       </c>
       <c r="R33" t="n">
-        <v>7005628.589513555</v>
+        <v>7005612.964627018</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4927,10 +4927,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112076812</v>
+        <v>112076818</v>
       </c>
       <c r="B34" t="n">
-        <v>86223</v>
+        <v>88899</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4943,21 +4943,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4412</v>
+        <v>3286</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4967,10 +4967,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>485781.0477857835</v>
+        <v>485662.1971341744</v>
       </c>
       <c r="R34" t="n">
-        <v>7005720.528212192</v>
+        <v>7005637.055439875</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -5039,10 +5039,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112076819</v>
+        <v>112076815</v>
       </c>
       <c r="B35" t="n">
-        <v>98535</v>
+        <v>96348</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -5051,25 +5051,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -5079,10 +5079,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>485663.6504581</v>
+        <v>485636.3825799476</v>
       </c>
       <c r="R35" t="n">
-        <v>7005760.78700736</v>
+        <v>7005628.589513555</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>

--- a/artfynd/A 32699-2023.xlsx
+++ b/artfynd/A 32699-2023.xlsx
@@ -3589,10 +3589,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111663296</v>
+        <v>111664006</v>
       </c>
       <c r="B23" t="n">
-        <v>77515</v>
+        <v>96368</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3601,44 +3601,61 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Spikbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>485609.6900141542</v>
+        <v>485633.0508789647</v>
       </c>
       <c r="R23" t="n">
-        <v>7005829.216201009</v>
+        <v>7005896.397059018</v>
       </c>
       <c r="S23" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3682,7 +3699,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>Enstaka bålar av garnlav på gran. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Minst 25 st. skott/stjälkar av spindelblomster varav minst ett skott som bär en överblommad blomstängel. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3703,21 +3720,6 @@
       <c r="AI23" t="inlineStr">
         <is>
           <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
-        </is>
-      </c>
-      <c r="AJ23" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK23" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO23" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3735,7 +3737,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111664006</v>
+        <v>111663810</v>
       </c>
       <c r="B24" t="n">
         <v>96368</v>
@@ -3770,7 +3772,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -3795,13 +3797,13 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>485633.0508789647</v>
+        <v>485613.4985160928</v>
       </c>
       <c r="R24" t="n">
-        <v>7005896.397059018</v>
+        <v>7005872.099109154</v>
       </c>
       <c r="S24" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3845,7 +3847,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>Minst 25 st. skott/stjälkar av spindelblomster varav minst ett skott som bär en överblommad blomstängel. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Minst 3 skott/stjälkar av spindelblomster. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3883,10 +3885,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111663810</v>
+        <v>111663296</v>
       </c>
       <c r="B25" t="n">
-        <v>96368</v>
+        <v>77515</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3895,58 +3897,41 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr"/>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Spikbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>485613.4985160928</v>
+        <v>485609.6900141542</v>
       </c>
       <c r="R25" t="n">
-        <v>7005872.099109154</v>
+        <v>7005829.216201009</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3993,7 +3978,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>Minst 3 skott/stjälkar av spindelblomster. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Enstaka bålar av garnlav på gran. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -4014,6 +3999,21 @@
       <c r="AI25" t="inlineStr">
         <is>
           <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+        </is>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>

--- a/artfynd/A 32699-2023.xlsx
+++ b/artfynd/A 32699-2023.xlsx
@@ -2562,10 +2562,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111662745</v>
+        <v>111663296</v>
       </c>
       <c r="B16" t="n">
-        <v>98535</v>
+        <v>77515</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2574,53 +2574,44 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>222498</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Spikbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>485562.0989985527</v>
+        <v>485610</v>
       </c>
       <c r="R16" t="n">
-        <v>7005804.591439915</v>
+        <v>7005829</v>
       </c>
       <c r="S16" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2647,24 +2638,14 @@
           <t>2023-08-21</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-08-21</t>
         </is>
       </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Relativt gott om blad av blåsippa.</t>
+          <t>Enstaka bålar av garnlav på gran. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2684,7 +2665,22 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig äldre skog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2762,10 +2758,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>485592.9227098347</v>
+        <v>485593</v>
       </c>
       <c r="R17" t="n">
-        <v>7005821.162446524</v>
+        <v>7005821</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2795,19 +2791,9 @@
           <t>2023-08-21</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
@@ -2850,10 +2836,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111662301</v>
+        <v>111663463</v>
       </c>
       <c r="B18" t="n">
-        <v>96348</v>
+        <v>89423</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2862,43 +2848,38 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>220787</v>
+        <v>5432</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr"/>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2906,10 +2887,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>485562.0989985527</v>
+        <v>485607</v>
       </c>
       <c r="R18" t="n">
-        <v>7005804.591439915</v>
+        <v>7005817</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2939,24 +2920,14 @@
           <t>2023-08-21</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-08-21</t>
         </is>
       </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>Minst 17 st. skott/stjälkar och 3 st. överblommade blomstänglar av knärot på två delytor inom ca 5 meters radie från fyndplatsens GPS-position. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>10 fruktkroppar av granticka på en levande gran med uthackat bohål. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2976,7 +2947,32 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig kontinuitetsskog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>En levande gran med uthackat bohål.</t>
+        </is>
+      </c>
+      <c r="AM18" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies # En levande gran med uthackat bohål.</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -3046,10 +3042,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>485568.4115727905</v>
+        <v>485568</v>
       </c>
       <c r="R19" t="n">
-        <v>7005800.49898608</v>
+        <v>7005800</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -3079,19 +3075,9 @@
           <t>2023-08-21</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -3129,10 +3115,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111663463</v>
+        <v>111662489</v>
       </c>
       <c r="B20" t="n">
-        <v>89423</v>
+        <v>96348</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -3141,52 +3127,61 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5432</v>
+        <v>220787</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>116</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Spikbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>485606.9225669679</v>
+        <v>485568</v>
       </c>
       <c r="R20" t="n">
-        <v>7005817.035828291</v>
+        <v>7005800</v>
       </c>
       <c r="S20" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -3213,24 +3208,14 @@
           <t>2023-08-21</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>2023-08-21</t>
         </is>
       </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>10 fruktkroppar av granticka på en levande gran med uthackat bohål. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Minst 116 st. skott/stjälkar och 6 st. överblommade blomstänglar av knärot. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3250,32 +3235,7 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
-        </is>
-      </c>
-      <c r="AJ20" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK20" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL20" t="inlineStr">
-        <is>
-          <t>En levande gran med uthackat bohål.</t>
-        </is>
-      </c>
-      <c r="AM20" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO20" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies # En levande gran med uthackat bohål.</t>
+          <t>Grandominerad, flerskiktad, luckig och äldre skog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -3293,10 +3253,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111662960</v>
+        <v>111663810</v>
       </c>
       <c r="B21" t="n">
-        <v>96348</v>
+        <v>96368</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3305,30 +3265,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>220787</v>
+        <v>221952</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -3353,10 +3313,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>485592.9227098347</v>
+        <v>485613</v>
       </c>
       <c r="R21" t="n">
-        <v>7005821.162446524</v>
+        <v>7005872</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -3386,24 +3346,14 @@
           <t>2023-08-21</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2023-08-21</t>
         </is>
       </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Här finns rikligt med knärot i en mer luckig del av skogen. Minst 880 st. skott/stjälkar och 63 st. överblommade blomstänglar av knärot inom en yta på ca 6 m2. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Minst 3 skott/stjälkar av spindelblomster. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3441,10 +3391,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111662489</v>
+        <v>111664006</v>
       </c>
       <c r="B22" t="n">
-        <v>96348</v>
+        <v>96368</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3453,30 +3403,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>220787</v>
+        <v>221952</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -3501,13 +3451,13 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>485568.4115727905</v>
+        <v>485633</v>
       </c>
       <c r="R22" t="n">
-        <v>7005800.49898608</v>
+        <v>7005896</v>
       </c>
       <c r="S22" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3534,24 +3484,14 @@
           <t>2023-08-21</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>2023-08-21</t>
         </is>
       </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Minst 116 st. skott/stjälkar och 6 st. överblommade blomstänglar av knärot. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Minst 25 st. skott/stjälkar av spindelblomster varav minst ett skott som bär en överblommad blomstängel. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3571,7 +3511,7 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad, luckig och äldre skog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3589,10 +3529,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111664006</v>
+        <v>111662745</v>
       </c>
       <c r="B23" t="n">
-        <v>96368</v>
+        <v>98535</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3605,36 +3545,28 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>221952</v>
+        <v>222498</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>överblommad</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="L23" t="inlineStr"/>
@@ -3649,10 +3581,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>485633.0508789647</v>
+        <v>485562</v>
       </c>
       <c r="R23" t="n">
-        <v>7005896.397059018</v>
+        <v>7005805</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3682,24 +3614,14 @@
           <t>2023-08-21</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA23" t="inlineStr">
         <is>
           <t>2023-08-21</t>
         </is>
       </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>Minst 25 st. skott/stjälkar av spindelblomster varav minst ett skott som bär en överblommad blomstängel. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Relativt gott om blad av blåsippa.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3719,7 +3641,7 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
+          <t>Grandominerad, flerskiktad och luckig äldre skog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3737,10 +3659,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111663810</v>
+        <v>111662960</v>
       </c>
       <c r="B24" t="n">
-        <v>96368</v>
+        <v>96348</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3749,30 +3671,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>221952</v>
+        <v>220787</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>880</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -3797,10 +3719,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>485613.4985160928</v>
+        <v>485593</v>
       </c>
       <c r="R24" t="n">
-        <v>7005872.099109154</v>
+        <v>7005821</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3830,24 +3752,14 @@
           <t>2023-08-21</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA24" t="inlineStr">
         <is>
           <t>2023-08-21</t>
         </is>
       </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>Minst 3 skott/stjälkar av spindelblomster. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Här finns rikligt med knärot i en mer luckig del av skogen. Minst 880 st. skott/stjälkar och 63 st. överblommade blomstänglar av knärot inom en yta på ca 6 m2. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3885,10 +3797,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111663296</v>
+        <v>111662301</v>
       </c>
       <c r="B25" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3897,30 +3809,43 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
@@ -3928,13 +3853,13 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>485609.6900141542</v>
+        <v>485562</v>
       </c>
       <c r="R25" t="n">
-        <v>7005829.216201009</v>
+        <v>7005805</v>
       </c>
       <c r="S25" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3961,24 +3886,14 @@
           <t>2023-08-21</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>2023-08-21</t>
         </is>
       </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>Enstaka bålar av garnlav på gran. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
+          <t>Minst 17 st. skott/stjälkar och 3 st. överblommade blomstänglar av knärot på två delytor inom ca 5 meters radie från fyndplatsens GPS-position. Obs! Fyndplatsen ligger inom en avverkningsanmäld yta med beteckning A 32699-2023.</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3998,22 +3913,7 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>Grandominerad, flerskiktad och luckig äldre skog med inslag av tall, rönn och sälg. Fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
-        </is>
-      </c>
-      <c r="AJ25" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK25" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO25" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
+          <t>Grandominerad, flerskiktad och luckig kontinuitetsskog med fältskikt dominerat av blåbärsris och med inslag av örter och gräs. Måttliga mängder stående och liggande död ved. På frisk och frisk-fuktig mark.</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
@@ -4071,10 +3971,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>485617.7772895112</v>
+        <v>485618</v>
       </c>
       <c r="R26" t="n">
-        <v>7005614.220750399</v>
+        <v>7005614</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -4104,19 +4004,9 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA26" t="inlineStr">
         <is>
           <t>2023-09-12</t>
-        </is>
-      </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -4143,10 +4033,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112076813</v>
+        <v>112076811</v>
       </c>
       <c r="B27" t="n">
-        <v>89405</v>
+        <v>86223</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -4159,21 +4049,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1202</v>
+        <v>4412</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -4183,10 +4073,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>485751.5946542841</v>
+        <v>485716</v>
       </c>
       <c r="R27" t="n">
-        <v>7005707.110036955</v>
+        <v>7005807</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -4216,19 +4106,9 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA27" t="inlineStr">
         <is>
           <t>2023-09-12</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -4295,10 +4175,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>485663.6504581</v>
+        <v>485664</v>
       </c>
       <c r="R28" t="n">
-        <v>7005760.78700736</v>
+        <v>7005761</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -4328,19 +4208,9 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA28" t="inlineStr">
         <is>
           <t>2023-09-12</t>
-        </is>
-      </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -4407,10 +4277,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>485781.0477857835</v>
+        <v>485781</v>
       </c>
       <c r="R29" t="n">
-        <v>7005720.528212192</v>
+        <v>7005721</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4440,19 +4310,9 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA29" t="inlineStr">
         <is>
           <t>2023-09-12</t>
-        </is>
-      </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4519,10 +4379,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>485714.0124070282</v>
+        <v>485714</v>
       </c>
       <c r="R30" t="n">
-        <v>7005798.497326628</v>
+        <v>7005798</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4552,19 +4412,9 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA30" t="inlineStr">
         <is>
           <t>2023-09-12</t>
-        </is>
-      </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4591,10 +4441,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112076820</v>
+        <v>112076818</v>
       </c>
       <c r="B31" t="n">
-        <v>98535</v>
+        <v>88899</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4603,25 +4453,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>222498</v>
+        <v>3286</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4631,10 +4481,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>485535.6276996838</v>
+        <v>485662</v>
       </c>
       <c r="R31" t="n">
-        <v>7005851.222630193</v>
+        <v>7005637</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4664,19 +4514,9 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA31" t="inlineStr">
         <is>
           <t>2023-09-12</t>
-        </is>
-      </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4703,10 +4543,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112076811</v>
+        <v>112076820</v>
       </c>
       <c r="B32" t="n">
-        <v>86223</v>
+        <v>98535</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4715,25 +4555,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4412</v>
+        <v>222498</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4743,10 +4583,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>485716.309309206</v>
+        <v>485536</v>
       </c>
       <c r="R32" t="n">
-        <v>7005806.615687455</v>
+        <v>7005851</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4776,19 +4616,9 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA32" t="inlineStr">
         <is>
           <t>2023-09-12</t>
-        </is>
-      </c>
-      <c r="AB32" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4815,10 +4645,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112076817</v>
+        <v>112076813</v>
       </c>
       <c r="B33" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4827,25 +4657,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4855,10 +4685,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>485595.6124165796</v>
+        <v>485752</v>
       </c>
       <c r="R33" t="n">
-        <v>7005612.964627018</v>
+        <v>7005707</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4888,19 +4718,9 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA33" t="inlineStr">
         <is>
           <t>2023-09-12</t>
-        </is>
-      </c>
-      <c r="AB33" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4927,10 +4747,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112076818</v>
+        <v>112076815</v>
       </c>
       <c r="B34" t="n">
-        <v>88899</v>
+        <v>96348</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4939,25 +4759,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>3286</v>
+        <v>220787</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4967,10 +4787,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>485662.1971341744</v>
+        <v>485636</v>
       </c>
       <c r="R34" t="n">
-        <v>7005637.055439875</v>
+        <v>7005629</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -5000,19 +4820,9 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA34" t="inlineStr">
         <is>
           <t>2023-09-12</t>
-        </is>
-      </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -5039,7 +4849,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112076815</v>
+        <v>112076817</v>
       </c>
       <c r="B35" t="n">
         <v>96348</v>
@@ -5079,10 +4889,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>485636.3825799476</v>
+        <v>485596</v>
       </c>
       <c r="R35" t="n">
-        <v>7005628.589513555</v>
+        <v>7005613</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -5112,19 +4922,9 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA35" t="inlineStr">
         <is>
           <t>2023-09-12</t>
-        </is>
-      </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD35" t="b">

--- a/artfynd/A 32699-2023.xlsx
+++ b/artfynd/A 32699-2023.xlsx
@@ -3931,10 +3931,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112076816</v>
+        <v>112076820</v>
       </c>
       <c r="B26" t="n">
-        <v>96348</v>
+        <v>98961</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3943,25 +3943,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3971,10 +3971,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>485618</v>
+        <v>485536</v>
       </c>
       <c r="R26" t="n">
-        <v>7005614</v>
+        <v>7005851</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -4033,10 +4033,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112076811</v>
+        <v>112076812</v>
       </c>
       <c r="B27" t="n">
-        <v>86223</v>
+        <v>86357</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -4073,10 +4073,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>485716</v>
+        <v>485781</v>
       </c>
       <c r="R27" t="n">
-        <v>7005807</v>
+        <v>7005721</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -4135,10 +4135,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112076819</v>
+        <v>112076817</v>
       </c>
       <c r="B28" t="n">
-        <v>98535</v>
+        <v>96720</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -4147,25 +4147,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -4175,10 +4175,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>485664</v>
+        <v>485596</v>
       </c>
       <c r="R28" t="n">
-        <v>7005761</v>
+        <v>7005613</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -4237,10 +4237,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112076812</v>
+        <v>112076814</v>
       </c>
       <c r="B29" t="n">
-        <v>86223</v>
+        <v>90221</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -4249,25 +4249,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4412</v>
+        <v>3298</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -4277,10 +4277,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>485781</v>
+        <v>485714</v>
       </c>
       <c r="R29" t="n">
-        <v>7005721</v>
+        <v>7005798</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4339,10 +4339,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112076814</v>
+        <v>112076813</v>
       </c>
       <c r="B30" t="n">
-        <v>90087</v>
+        <v>89539</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4351,25 +4351,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>3298</v>
+        <v>1202</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4379,10 +4379,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>485714</v>
+        <v>485752</v>
       </c>
       <c r="R30" t="n">
-        <v>7005798</v>
+        <v>7005707</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4441,10 +4441,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112076818</v>
+        <v>112076816</v>
       </c>
       <c r="B31" t="n">
-        <v>88899</v>
+        <v>96720</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4453,25 +4453,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>3286</v>
+        <v>220787</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4481,10 +4481,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>485662</v>
+        <v>485618</v>
       </c>
       <c r="R31" t="n">
-        <v>7005637</v>
+        <v>7005614</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4543,10 +4543,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112076820</v>
+        <v>112076815</v>
       </c>
       <c r="B32" t="n">
-        <v>98535</v>
+        <v>96720</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4555,25 +4555,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4583,10 +4583,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>485536</v>
+        <v>485636</v>
       </c>
       <c r="R32" t="n">
-        <v>7005851</v>
+        <v>7005629</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4645,10 +4645,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112076813</v>
+        <v>112076818</v>
       </c>
       <c r="B33" t="n">
-        <v>89405</v>
+        <v>89033</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4661,21 +4661,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1202</v>
+        <v>3286</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4685,10 +4685,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>485752</v>
+        <v>485662</v>
       </c>
       <c r="R33" t="n">
-        <v>7005707</v>
+        <v>7005637</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4747,10 +4747,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112076815</v>
+        <v>112076811</v>
       </c>
       <c r="B34" t="n">
-        <v>96348</v>
+        <v>86357</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4759,25 +4759,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>220787</v>
+        <v>4412</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4787,10 +4787,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>485636</v>
+        <v>485716</v>
       </c>
       <c r="R34" t="n">
-        <v>7005629</v>
+        <v>7005807</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4849,10 +4849,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112076817</v>
+        <v>112076819</v>
       </c>
       <c r="B35" t="n">
-        <v>96348</v>
+        <v>98961</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4861,25 +4861,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4889,10 +4889,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>485596</v>
+        <v>485664</v>
       </c>
       <c r="R35" t="n">
-        <v>7005613</v>
+        <v>7005761</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>

--- a/artfynd/A 32699-2023.xlsx
+++ b/artfynd/A 32699-2023.xlsx
@@ -3931,10 +3931,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112076820</v>
+        <v>112076815</v>
       </c>
       <c r="B26" t="n">
-        <v>98961</v>
+        <v>96735</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3943,25 +3943,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3971,10 +3971,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>485536</v>
+        <v>485636</v>
       </c>
       <c r="R26" t="n">
-        <v>7005851</v>
+        <v>7005629</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -4036,7 +4036,7 @@
         <v>112076812</v>
       </c>
       <c r="B27" t="n">
-        <v>86357</v>
+        <v>86371</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -4135,10 +4135,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112076817</v>
+        <v>112076818</v>
       </c>
       <c r="B28" t="n">
-        <v>96720</v>
+        <v>89047</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -4147,25 +4147,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>220787</v>
+        <v>3286</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -4175,10 +4175,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>485596</v>
+        <v>485662</v>
       </c>
       <c r="R28" t="n">
-        <v>7005613</v>
+        <v>7005637</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -4237,10 +4237,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112076814</v>
+        <v>112076816</v>
       </c>
       <c r="B29" t="n">
-        <v>90221</v>
+        <v>96735</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -4249,25 +4249,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3298</v>
+        <v>220787</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -4277,10 +4277,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>485714</v>
+        <v>485618</v>
       </c>
       <c r="R29" t="n">
-        <v>7005798</v>
+        <v>7005614</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4339,10 +4339,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112076813</v>
+        <v>112076820</v>
       </c>
       <c r="B30" t="n">
-        <v>89539</v>
+        <v>98980</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4351,25 +4351,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1202</v>
+        <v>222498</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4379,10 +4379,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>485752</v>
+        <v>485536</v>
       </c>
       <c r="R30" t="n">
-        <v>7005707</v>
+        <v>7005851</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4441,10 +4441,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112076816</v>
+        <v>112076814</v>
       </c>
       <c r="B31" t="n">
-        <v>96720</v>
+        <v>90235</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4453,25 +4453,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>220787</v>
+        <v>3298</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4481,10 +4481,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>485618</v>
+        <v>485714</v>
       </c>
       <c r="R31" t="n">
-        <v>7005614</v>
+        <v>7005798</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4543,10 +4543,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112076815</v>
+        <v>112076817</v>
       </c>
       <c r="B32" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4583,10 +4583,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>485636</v>
+        <v>485596</v>
       </c>
       <c r="R32" t="n">
-        <v>7005629</v>
+        <v>7005613</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4645,10 +4645,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112076818</v>
+        <v>112076813</v>
       </c>
       <c r="B33" t="n">
-        <v>89033</v>
+        <v>89553</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4661,21 +4661,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>3286</v>
+        <v>1202</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4685,10 +4685,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>485662</v>
+        <v>485752</v>
       </c>
       <c r="R33" t="n">
-        <v>7005637</v>
+        <v>7005707</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4750,7 +4750,7 @@
         <v>112076811</v>
       </c>
       <c r="B34" t="n">
-        <v>86357</v>
+        <v>86371</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>112076819</v>
       </c>
       <c r="B35" t="n">
-        <v>98961</v>
+        <v>98980</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>

--- a/artfynd/A 32699-2023.xlsx
+++ b/artfynd/A 32699-2023.xlsx
@@ -3931,7 +3931,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112076815</v>
+        <v>112076816</v>
       </c>
       <c r="B26" t="n">
         <v>96735</v>
@@ -3971,10 +3971,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>485636</v>
+        <v>485618</v>
       </c>
       <c r="R26" t="n">
-        <v>7005629</v>
+        <v>7005614</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -4033,10 +4033,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112076812</v>
+        <v>112076820</v>
       </c>
       <c r="B27" t="n">
-        <v>86371</v>
+        <v>98980</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -4045,25 +4045,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4412</v>
+        <v>222498</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -4073,10 +4073,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>485781</v>
+        <v>485536</v>
       </c>
       <c r="R27" t="n">
-        <v>7005721</v>
+        <v>7005851</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -4135,10 +4135,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112076818</v>
+        <v>112076813</v>
       </c>
       <c r="B28" t="n">
-        <v>89047</v>
+        <v>89553</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -4151,21 +4151,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3286</v>
+        <v>1202</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -4175,10 +4175,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>485662</v>
+        <v>485752</v>
       </c>
       <c r="R28" t="n">
-        <v>7005637</v>
+        <v>7005707</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -4237,7 +4237,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112076816</v>
+        <v>112076817</v>
       </c>
       <c r="B29" t="n">
         <v>96735</v>
@@ -4277,10 +4277,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>485618</v>
+        <v>485596</v>
       </c>
       <c r="R29" t="n">
-        <v>7005614</v>
+        <v>7005613</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4339,10 +4339,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112076820</v>
+        <v>112076818</v>
       </c>
       <c r="B30" t="n">
-        <v>98980</v>
+        <v>89047</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4351,25 +4351,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>222498</v>
+        <v>3286</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4379,10 +4379,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>485536</v>
+        <v>485662</v>
       </c>
       <c r="R30" t="n">
-        <v>7005851</v>
+        <v>7005637</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4441,10 +4441,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112076814</v>
+        <v>112076812</v>
       </c>
       <c r="B31" t="n">
-        <v>90235</v>
+        <v>86371</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4453,25 +4453,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>3298</v>
+        <v>4412</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4481,10 +4481,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>485714</v>
+        <v>485781</v>
       </c>
       <c r="R31" t="n">
-        <v>7005798</v>
+        <v>7005721</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4543,10 +4543,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112076817</v>
+        <v>112076814</v>
       </c>
       <c r="B32" t="n">
-        <v>96735</v>
+        <v>90235</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4555,25 +4555,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>220787</v>
+        <v>3298</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4583,10 +4583,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>485596</v>
+        <v>485714</v>
       </c>
       <c r="R32" t="n">
-        <v>7005613</v>
+        <v>7005798</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4645,10 +4645,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112076813</v>
+        <v>112076819</v>
       </c>
       <c r="B33" t="n">
-        <v>89553</v>
+        <v>98980</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4657,25 +4657,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1202</v>
+        <v>222498</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4685,10 +4685,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>485752</v>
+        <v>485664</v>
       </c>
       <c r="R33" t="n">
-        <v>7005707</v>
+        <v>7005761</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4747,10 +4747,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112076811</v>
+        <v>112076815</v>
       </c>
       <c r="B34" t="n">
-        <v>86371</v>
+        <v>96735</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4759,25 +4759,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4412</v>
+        <v>220787</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4787,10 +4787,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>485716</v>
+        <v>485636</v>
       </c>
       <c r="R34" t="n">
-        <v>7005807</v>
+        <v>7005629</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4849,10 +4849,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112076819</v>
+        <v>112076811</v>
       </c>
       <c r="B35" t="n">
-        <v>98980</v>
+        <v>86371</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4861,25 +4861,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>222498</v>
+        <v>4412</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4889,10 +4889,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>485664</v>
+        <v>485716</v>
       </c>
       <c r="R35" t="n">
-        <v>7005761</v>
+        <v>7005807</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
